--- a/docs/02_InProgress/0.기획_WBS_ LeCun.xlsx
+++ b/docs/02_InProgress/0.기획_WBS_ LeCun.xlsx
@@ -15,212 +15,44 @@
     <x:sheet name="시트1" sheetId="1" r:id="rId4"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">시트1!$A$8:$I$168</x:definedName>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">시트1!$A$8:$I$169</x:definedName>
   </x:definedNames>
   <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="178">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="179">
   <x:si>
-    <x:t>모델 개발 - 월별 여행지 순위 예측</x:t>
+    <x:t>2.1 DB 스키마 설계</x:t>
   </x:si>
   <x:si>
-    <x:t>벡터 DB환경 구성 - pgvector</x:t>
-  </x:si>
-  <x:si>
-    <x:t>임베딩 모델 선정 및 학습 - OPEN API</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진척율</x:t>
-  </x:si>
-  <x:si>
-    <x:t>버전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>팀명</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> </x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로젝트명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최종 수정일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여행 추천</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시연영상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음식점/카페</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화면설계서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단계구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우선순위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시스템 구성도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.1 기획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주요 업무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5.1 배포</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세부 업무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.0.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LeCun</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 로그인 검증</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 다국어 지원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진행 예정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작성자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마감일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>항공권</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기념품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전압</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관광지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시작일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숙소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작성일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>담당자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환율</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날씨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종료일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.1 DB 스키마 설계</x:t>
+    <x:t xml:space="preserve"> 여행 일정 드래그앤드롭</x:t>
   </x:si>
   <x:si>
     <x:t>2.3 화면/UI 설계</x:t>
   </x:si>
   <x:si>
+    <x:t>LLM 활용 소프트웨어</x:t>
+  </x:si>
+  <x:si>
     <x:t>2.2 시스템 아키텍처 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테스트 계획 및 결과 보고서</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> AI 어시스턴트 채팅 구현</x:t>
   </x:si>
   <x:si>
     <x:t>프로젝트 개발 소스코드</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> 여행 일정 드래그앤드롭</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> AI 어시스턴트 채팅 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LLM 활용 소프트웨어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테스트 계획 및 결과 보고서</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve"> 참가자 온라인 상태 표시</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> "Enter" 키로 메시지 전송 이벤트 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 화면 구조 및 디자인 구현 - 랜딩 페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 일정 내보내기 (PDF, ICS, CSV)</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 화면 구조 및 디자인 구현 - 사이드바 컴포넌트</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 화면 구조 및 디자인 구현 - 로그인 페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유튜브 및 커뮤니티 여행 코스 정보 수집</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개발된 LLM 연동 웹 애플리케이션</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 태블릿 전용 레이아웃 최적화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수집된 데이터 및 전처리 문서</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 로딩 스피너 및 상태 표시 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인공지능 데이터 전처리 결과서</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 에러 페이지 및 예외 처리 UI</x:t>
-  </x:si>
-  <x:si>
     <x:r>
-      <x:t xml:space="preserve">  Django REST API </x:t>
+      <x:t xml:space="preserve">  AWS EC2 </x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -228,7 +60,12 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>구현</x:t>
+      <x:t>인스턴스 설정 및 보안 그룹 구성</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">  AI </x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -236,7 +73,12 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t xml:space="preserve"> - </x:t>
+      <x:t>모델 연동 - 비동기 작업 처리 (Celery)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">  Nginx </x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -244,76 +86,7 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>여행</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>계획</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> CRUD ViewSet</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">  </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>외부</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> API </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>연동</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> - Google Maps API Django </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>서비스</x:t>
+      <x:t>설정 - SSL/TLS 인증서 (Let's Encrypt)</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -326,131 +99,11 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>파이프라인</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> - GitHub Actions + AWS EC2</x:t>
+      <x:t>파이프라인 - GitHub Actions + AWS EC2</x:t>
     </x:r>
   </x:si>
   <x:si>
-    <x:r>
-      <x:t xml:space="preserve">  Nginx </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>설정</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> - SSL/TLS </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>인증서</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> (Let's Encrypt)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>박진우, 최서린</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요구사항 정의서 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025.09.26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로젝트 기획서 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025.09.24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여행 경보 단계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>각 모듈별 테스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.1 데이터 수집</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025.09.17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테스트 시나리오 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 소셜 로그인 (Google, Kakao)</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Shift+Enter로 줄바꿈 기능 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 화면 구조 및 디자인 구현 - 여행 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 실시간 메시징 (Socket.io)</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 모든 웹페이지 반응형 디자인으로 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 지도 연동 (Google Maps)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2 문서 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인공지능 학습 결과서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중간 발표 PT 자료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최종 발표 PT 자료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자체 LLM 인공지능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학습된 인공지능 모델</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> API 정의서 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 화면 구조 및 디자인 구현 - 실시간 채팅 인터페이스</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 화면 구조 및 디자인 구현 - 여행 플래너 페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LLM 연동 및 응답 생성 모듈 구현</x:t>
+    <x:t>모델 개발 - 날씨 예측</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -462,7 +115,30 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>로그</x:t>
+      <x:t>계정 관리 - Django 커스텀 User 모델</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>로그 수집/저장 파이프라인 구축 - postgresql</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모델 검증 및 평가 - 날씨 예측</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수집된 데이터 및 전처리 문서</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 태블릿 전용 레이아웃 최적화</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 에러 페이지 및 예외 처리 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 로딩 스피너 및 상태 표시 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>요구사항</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -470,122 +146,11 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>관리</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> - Django </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>로깅</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>설정</x:t>
+      <x:t xml:space="preserve"> 정의서 기반 엔티티 도출</x:t>
     </x:r>
   </x:si>
   <x:si>
-    <x:r>
-      <x:t xml:space="preserve">  PostgreSQL </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>데이터베이스</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>설계</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">  Django </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>관리자</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>페이지</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>커스터마이징</x:t>
-    </x:r>
+    <x:t>개발된 LLM 연동 웹 애플리케이션</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -597,132 +162,7 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t xml:space="preserve"> DDL </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>스크립트</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>작성</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>및</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>검토</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>요구사항</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>정의서</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>기반</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>엔티티</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>도출</x:t>
+      <x:t xml:space="preserve"> DDL 스크립트 작성 및 검토</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -748,84 +188,7 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>프로젝트</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>초기</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>설정</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">  Nginx </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>설정</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> - </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>로드</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>밸런싱</x:t>
+      <x:t>프로젝트 초기 설정</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -838,7 +201,18 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>데이터베이스</x:t>
+      <x:t>데이터베이스 마이그레이션 자동화</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>로직 구현 - Retriever</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인공지능 데이터 전처리 결과서</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">  Nginx </x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -846,31 +220,7 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>마이그레이션</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>자동화</x:t>
+      <x:t>설정 - 로드 밸런싱</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -883,964 +233,7 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>성능</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>테스트</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> - Django </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>부하</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>테스트</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">  </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>백그라운드</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>작업</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> - Celery + Redis</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">  </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>이미지</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>처리</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> - Pillow </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>라이브러리</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>활용</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">  Docker </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>컨테이너화</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> - Nginx </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>컨테이너</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">  AWS S3 </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>버킷</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>설정</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>및</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>정적</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>파일</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>관리</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">  </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>모니터링</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> - Django </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>헬스체크</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>엔드포인트</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">  Docker </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>컨테이너화</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> - Redis </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>컨테이너</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">  </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>환경</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>변수</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>관리</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> (django-environ)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>로직 구현 - Retriever</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모델 검증 및 평가 - 월별 여행지 순위 예측</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">  Redis </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>캐싱</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>구현</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> - API </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>응답</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>캐싱</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>리뷰</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>/</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>피드백</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>반영</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>및</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>최종</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> UI </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>확정</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">API Gateway </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>및</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>통신</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>방식</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>정의</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">ERD </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>작성</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">4. </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>테스트</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">WBS </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>작성</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">5. </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>완료</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>모델 개발 - 날씨 예측</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>제약조건</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>및</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>인덱스</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>정의</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">  </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>실시간</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>협업</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>동기화</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>구현</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">3.3 Back-end </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>개발</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">AWS EC2 </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>인스턴스 구축</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>5.2 발표</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>자료</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>작성</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">  Django </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>모델</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>설계</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">UI </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>디자인</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>시안</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>제작</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>자연어 기반 일정 추출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대화 데이터 구조 설계 - postgresql</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve"> API </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>정의서</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>작성</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> (Django REST Framework + DRF-YASG)</x:t>
+      <x:t>외부 API 연동 - Google Maps API Django 서비스</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -1853,70 +246,32 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>구현</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> - </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>검색</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>및</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>필터링</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> (django-filter)</x:t>
+      <x:t>구현 - 여행 계획 CRUD ViewSet</x:t>
     </x:r>
   </x:si>
   <x:si>
-    <x:t>통합 테스트</x:t>
+    <x:t xml:space="preserve"> 화면 구조 및 디자인 구현 - 로그인 페이지</x:t>
   </x:si>
   <x:si>
-    <x:t>데이터 전처리 - 결측치 및 이상치 처리</x:t>
+    <x:t xml:space="preserve"> 화면 구조 및 디자인 구현 - 사이드바 컴포넌트</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 일정 내보내기 (PDF, ICS, CSV)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> "Enter" 키로 메시지 전송 이벤트 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대화 데이터 구조 설계 - postgresql</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 화면 구조 및 디자인 구현 - 랜딩 페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모델 검증 및 평가 - 월별 여행지 순위 예측</x:t>
+  </x:si>
+  <x:si>
+    <x:t>임베딩 모델 선정 및 학습 - OPEN API</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -1928,164 +283,7 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>/</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>컬럼</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>설계</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> (</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>명명</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>규칙</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">, PK/FK </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>포함</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">  Django </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>마이그레이션</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>파일</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>생성</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>및</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>적용</x:t>
+      <x:t>/컬럼 설계 (명명 규칙, PK/FK 포함)</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -2103,6 +301,19 @@
   </x:si>
   <x:si>
     <x:r>
+      <x:t xml:space="preserve">  Django </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>마이그레이션 파일 생성 및 적용</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
       <x:t xml:space="preserve">  PostgreSQL </x:t>
     </x:r>
     <x:r>
@@ -2111,7 +322,12 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>데이터베이스</x:t>
+      <x:t>데이터베이스 연결 설정</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">  Redis </x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -2119,7 +335,12 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
+      <x:t>캐싱 구현 - API 응답 캐싱</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">  Docker </x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -2127,23 +348,7 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>연결</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>설정</x:t>
+      <x:t>컨테이너화 - Redis 컨테이너</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -2156,7 +361,12 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>계정</x:t>
+      <x:t>백그라운드 작업 - Celery + Redis</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">  Docker </x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -2164,7 +374,12 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
+      <x:t>컨테이너화 - Nginx 컨테이너</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">  </x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -2172,7 +387,12 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>관리</x:t>
+      <x:t>모니터링 - Django 헬스체크 엔드포인트</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">  AWS S3 </x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -2180,7 +400,12 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t xml:space="preserve"> - Django </x:t>
+      <x:t>버킷 설정 및 정적 파일 관리</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">  </x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -2188,7 +413,12 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>커스텀</x:t>
+      <x:t>환경 변수 관리 (django-environ)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">  </x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -2196,7 +426,12 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t xml:space="preserve"> User </x:t>
+      <x:t>이미지 처리 - Pillow 라이브러리 활용</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">  </x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -2204,7 +439,293 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>모델</x:t>
+      <x:t>성능 테스트 - Django 부하 테스트</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>서비스</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 아키텍처 정의 (Frontend/Backend/DB 계층)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">  Django REST API </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>구현 - 사용자 인증 ViewSet</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">  </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>파일 저장소 - AWS S3 연동 (django-storages)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">  Docker </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>컨테이너화 - Django Dockerfile 작성</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">  Django REST API </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>구현 - 파일 업로드 ViewSet</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">  Nginx </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>설정 - Django uWSGI/Gunicorn 연동</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">  AWS EC2 - Docker </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>및 docker-compose 설치</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">  Django REST API </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>구현 - 채팅 메시지 ViewSet</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">  </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>권한 관리 - Django REST Framework JWT 인증</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">  docker-compose.yml </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>전체 서비스 구성</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 화면 구조 및 디자인 구현 - 실시간 채팅 인터페이스</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 화면 구조 및 디자인 구현 - 여행 플래너 페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모델 개발 - 월별 여행지 순위 예측</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벡터 DB환경 구성 - pgvector</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유튜브 및 커뮤니티 여행 코스 정보 수집</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">API Gateway </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>및 통신 방식 정의</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>리뷰</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>/피드백 반영 및 최종 UI 확정</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 화면 구조 및 디자인 구현 - 여행 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 실시간 메시징 (Socket.io)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 모든 웹페이지 반응형 디자인으로 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Shift+Enter로 줄바꿈 기능 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LLM 연동 및 응답 생성 모듈 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 소셜 로그인 (Google, Kakao)</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">  PostgreSQL </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>데이터베이스 설계</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 지도 연동 (Google Maps)</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">  </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>로그 관리 - Django 로깅 설정</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">  Django </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>관리자 페이지 커스터마이징</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>데이터 전처리 - 결측치 및 이상치 처리</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">  Django Channels </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>설정 - WebSocket 지원</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">  Docker </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>컨테이너화 - PostgreSQL 컨테이너</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">  </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>계정 관리 - 소셜 로그인 (django-allauth)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">  Redis </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>설정 - Django Channels Layer</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -2217,7 +738,12 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>모델</x:t>
+      <x:t>모델 연동 - OpenAI API Django 서비스</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">  Django REST Framework </x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -2225,7 +751,12 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
+      <x:t>권한 및 인증 최적화</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve"> API </x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -2233,283 +764,7 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>연동</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> - </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>비동기</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>작업</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>처리</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> (Celery)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">  docker-compose.yml </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>전체</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>서비스</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>구성</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">  </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>백업</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>시스템</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> - PostgreSQL </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>백업</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>스크립트</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">  CORS </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>설정</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> - django-cors-headers</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">  AWS EC2 </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>인스턴스</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>설정</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>및</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>보안</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>그룹</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>구성</x:t>
+      <x:t>정의서 작성 (Django REST Framework + DRF-YASG)</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -2522,451 +777,7 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>구현</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> - </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>파일</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>업로드</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> ViewSet</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">  Django REST API </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>구현</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> - </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>채팅</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>메시지</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> ViewSet</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">  </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>권한</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>관리</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> - Django REST Framework JWT </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>인증</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">  AWS EC2 - Docker </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>및</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> docker-compose </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>설치</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">  Django REST API </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>구현</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> - </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>사용자</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>인증</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> ViewSet</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>서비스</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>아키텍처</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>정의</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> (Frontend/Backend/DB </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>계층</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">  Docker </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>컨테이너화</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> - Django Dockerfile </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>작성</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">  </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>파일</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>저장소</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> - AWS S3 </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>연동</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> (django-storages)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">  Nginx </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>설정</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> - Django uWSGI/Gunicorn </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>연동</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">3.4 </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>모델 개발</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">3.5 </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>문서 작성</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>데이터</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 조회 프로그램</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">4.1 </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>단위 테스트</x:t>
+      <x:t>구현 - 검색 및 필터링 (django-filter)</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -2983,8 +794,62 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>2025.09.26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로젝트 기획서 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박진우, 최서린</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요구사항 정의서 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.09.24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학습된 인공지능 모델</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최종 발표 PT 자료</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> API 정의서 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자체 LLM 인공지능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.1 데이터 수집</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여행 경보 단계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테스트 시나리오 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2 문서 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.09.17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인공지능 학습 결과서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중간 발표 PT 자료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>각 모듈별 테스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추천 지표 정의</x:t>
+  </x:si>
+  <x:si>
     <x:r>
-      <x:t xml:space="preserve">Docker </x:t>
+      <x:t>기술</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -2992,309 +857,7 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>배포</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>추천 지표 정의</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">  </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>계정</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>관리</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> - </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>소셜</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>로그인</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> (django-allauth)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">  Redis </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>설정</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> - Django Channels Layer</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">  Django Channels </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>설정</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> - WebSocket </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>지원</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">  AI </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>모델</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>연동</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> - OpenAI API Django </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>서비스</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">  Django REST Framework </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>권한</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>및</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>인증</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>최적화</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">  Docker </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>컨테이너화</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> - PostgreSQL </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>컨테이너</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">  </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>실시간</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>채팅</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>구현</x:t>
+      <x:t xml:space="preserve"> 스택 확정</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -3307,31 +870,7 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>아키텍처</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>설계</x:t>
+      <x:t xml:space="preserve"> 아키텍처 설계</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -3344,7 +883,12 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>/</x:t>
+      <x:t>/인증 설계</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>화면</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -3352,23 +896,7 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>인증</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>설계</x:t>
+      <x:t xml:space="preserve"> 플로우차트 작성</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -3381,81 +909,7 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>화면</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>정의</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>기술</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>스택</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>확정</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>데이터베이스</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 설계문서</x:t>
+      <x:t xml:space="preserve"> 화면 정의</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -3486,7 +940,7 @@
   </x:si>
   <x:si>
     <x:r>
-      <x:t>화면</x:t>
+      <x:t>데이터베이스</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -3494,7 +948,12 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
+      <x:t xml:space="preserve"> 설계문서</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">  </x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -3502,7 +961,12 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>플로우차트</x:t>
+      <x:t>실시간 채팅 구현</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">3.4 </x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -3510,7 +974,117 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
+      <x:t>모델 개발</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>데이터</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 조회 프로그램</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">3.5 </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>문서 작성</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">4.1 </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>단위 테스트</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>프로젝트명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여행 추천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화면설계서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우선순위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주요 업무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 로그인 검증</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시연영상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진행 예정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최종 수정일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음식점/카페</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단계구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LeCun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통합 테스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템 구성도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.1 배포</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.0.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 다국어 지원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.1 기획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세부 업무</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">ERD </x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -3522,10 +1096,239 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>모델 검증 및 평가 - 날씨 예측</x:t>
+    <x:r>
+      <x:t xml:space="preserve">4. </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>테스트</x:t>
+    </x:r>
   </x:si>
   <x:si>
-    <x:t>로그 수집/저장 파이프라인 구축 - postgresql</x:t>
+    <x:r>
+      <x:t xml:space="preserve">5. </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>완료</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">WBS </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>작성</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>버전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마감일</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> </x:t>
+  </x:si>
+  <x:si>
+    <x:t>팀명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작성자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진척율</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전압</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관광지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시작일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작성일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숙소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>담당자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환율</x:t>
+  </x:si>
+  <x:si>
+    <x:t>항공권</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기념품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종료일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날씨</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">3.3 Back-end </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>개발</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>5.2 발표</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 자료 작성</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">UI </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>디자인 시안 제작</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>제약조건</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 및 인덱스 정의</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">AWS EC2 </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>인스턴스 구축</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">  </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>실시간 협업 동기화 구현</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">  Django </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>모델 설계</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">  </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>백업 시스템 - PostgreSQL 백업 스크립트</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">  CORS </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>설정 - django-cors-headers</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">Docker </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>배포</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>자연어-지도 연동 일정 추출 기능 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모델에 의한 문서화 작업 구현</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -3571,50 +1374,18 @@
       <x:sz val="10"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-          <x:i val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-          <x:i val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="10"/>
+      <x:color rgb="ff000000"/>
+      <x:i val="1"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="10"/>
+      <x:color rgb="ff000000"/>
+      <x:b val="1"/>
+    </x:font>
   </x:fonts>
   <x:fills count="4">
     <x:fill>
@@ -3683,6 +1454,20 @@
       <x:left style="thin">
         <x:color rgb="ff000000"/>
       </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
       <x:right>
         <x:color auto="1"/>
       </x:right>
@@ -3707,20 +1492,6 @@
         <x:color rgb="ff000000"/>
       </x:bottom>
     </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
   </x:borders>
   <x:cellStyleXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3734,7 +1505,7 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3781,7 +1552,7 @@
     <x:xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <x:xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3803,7 +1574,7 @@
     <x:xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <x:xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3819,13 +1590,13 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <x:xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3872,7 +1643,7 @@
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3888,16 +1659,16 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <x:xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="9" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <x:xf numFmtId="9" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3916,65 +1687,13 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="bottom" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="bottom" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <x:xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3990,10 +1709,10 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <x:xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4025,7 +1744,7 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <x:xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4115,6 +1834,58 @@
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="bottom" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="bottom" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:cellXfs>
   <x:cellStyles count="2">
     <x:cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -4323,10 +2094,10 @@
   <x:sheetPr codeName="Sheet1">
     <x:outlinePr applyStyles="0" summaryBelow="0" summaryRight="1" showOutlineSymbols="1"/>
   </x:sheetPr>
-  <x:dimension ref="A2:AA1116"/>
+  <x:dimension ref="A2:AA1117"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A106" zoomScale="90" zoomScaleNormal="75" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <x:selection activeCell="H131" activeCellId="0" sqref="H131:H131"/>
+    <x:sheetView tabSelected="1" topLeftCell="A106" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <x:selection activeCell="C133" activeCellId="0" sqref="C133:C133"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4348,45 +2119,45 @@
       <x:c r="B2" s="33"/>
       <x:c r="C2" s="33"/>
       <x:c r="D2" s="33"/>
-      <x:c r="F2" s="34" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G2" s="35"/>
-      <x:c r="H2" s="36" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="I2" s="37"/>
+      <x:c r="F2" s="54" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="G2" s="55"/>
+      <x:c r="H2" s="56" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="I2" s="57"/>
     </x:row>
     <x:row r="3" spans="1:9" customHeight="1">
       <x:c r="A3" s="33"/>
       <x:c r="B3" s="33"/>
       <x:c r="C3" s="33"/>
       <x:c r="D3" s="33"/>
-      <x:c r="F3" s="34" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G3" s="35"/>
-      <x:c r="H3" s="36" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="I3" s="37"/>
+      <x:c r="F3" s="54" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="G3" s="55"/>
+      <x:c r="H3" s="56" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="I3" s="57"/>
     </x:row>
     <x:row r="4" spans="1:9" customHeight="1">
       <x:c r="A4" s="33"/>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="33"/>
       <x:c r="D4" s="33"/>
-      <x:c r="F4" s="38" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="G4" s="39" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="H4" s="38" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I4" s="39" t="s">
-        <x:v>69</x:v>
+      <x:c r="F4" s="34" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="G4" s="35" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="H4" s="34" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="I4" s="35" t="s">
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9" customHeight="1">
@@ -4394,17 +2165,17 @@
       <x:c r="B5" s="33"/>
       <x:c r="C5" s="33"/>
       <x:c r="D5" s="33"/>
-      <x:c r="F5" s="38" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G5" s="39" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="H5" s="38" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="I5" s="40" t="s">
-        <x:v>77</x:v>
+      <x:c r="F5" s="34" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="G5" s="35" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="H5" s="34" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="I5" s="36" t="s">
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9" customHeight="1">
@@ -4412,17 +2183,17 @@
       <x:c r="B6" s="33"/>
       <x:c r="C6" s="33"/>
       <x:c r="D6" s="33"/>
-      <x:c r="F6" s="38" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G6" s="39" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="H6" s="38" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="I6" s="40" t="s">
-        <x:v>71</x:v>
+      <x:c r="F6" s="34" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="G6" s="35" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="H6" s="34" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="I6" s="36" t="s">
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="13:13" customHeight="1">
@@ -4430,31 +2201,31 @@
     </x:row>
     <x:row r="8" spans="1:27" ht="22.19999999999999928946" customHeight="1">
       <x:c r="A8" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E8" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="G8" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="H8" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="I8" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="J8" s="1"/>
       <x:c r="K8" s="1"/>
@@ -4476,10 +2247,10 @@
     </x:row>
     <x:row r="9" spans="1:27" ht="13.19999999999999928946">
       <x:c r="A9" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B9" s="9" t="s">
-        <x:v>18</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C9" s="10"/>
       <x:c r="D9" s="10"/>
@@ -4488,8 +2259,8 @@
       <x:c r="G9" s="11"/>
       <x:c r="H9" s="11"/>
       <x:c r="I9" s="10"/>
-      <x:c r="J9" s="41"/>
-      <x:c r="K9" s="41"/>
+      <x:c r="J9" s="37"/>
+      <x:c r="K9" s="37"/>
       <x:c r="L9" s="1"/>
       <x:c r="M9" s="1"/>
       <x:c r="O9" s="1"/>
@@ -4509,10 +2280,10 @@
     <x:row r="10" spans="1:27" ht="13.19999999999999928946">
       <x:c r="A10" s="7"/>
       <x:c r="B10" s="8"/>
-      <x:c r="C10" s="42"/>
+      <x:c r="C10" s="38"/>
       <x:c r="D10" s="1"/>
       <x:c r="E10" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F10" s="29">
         <x:v>0</x:v>
@@ -4520,8 +2291,8 @@
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4"/>
       <x:c r="I10" s="1"/>
-      <x:c r="J10" s="41"/>
-      <x:c r="K10" s="41"/>
+      <x:c r="J10" s="37"/>
+      <x:c r="K10" s="37"/>
       <x:c r="L10" s="1"/>
       <x:c r="M10" s="1"/>
       <x:c r="O10" s="1"/>
@@ -4541,7 +2312,7 @@
     <x:row r="11" spans="1:27" ht="13.19999999999999928946">
       <x:c r="A11" s="7"/>
       <x:c r="B11" s="12" t="s">
-        <x:v>85</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C11" s="10"/>
       <x:c r="D11" s="10"/>
@@ -4550,8 +2321,8 @@
       <x:c r="G11" s="11"/>
       <x:c r="H11" s="11"/>
       <x:c r="I11" s="10"/>
-      <x:c r="J11" s="41"/>
-      <x:c r="K11" s="41"/>
+      <x:c r="J11" s="37"/>
+      <x:c r="K11" s="37"/>
       <x:c r="L11" s="1"/>
       <x:c r="M11" s="1"/>
       <x:c r="O11" s="1"/>
@@ -4572,11 +2343,11 @@
       <x:c r="A12" s="7"/>
       <x:c r="B12" s="26"/>
       <x:c r="C12" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D12" s="27"/>
       <x:c r="E12" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F12" s="29">
         <x:v>0</x:v>
@@ -4584,8 +2355,8 @@
       <x:c r="G12" s="28"/>
       <x:c r="H12" s="28"/>
       <x:c r="I12" s="27"/>
-      <x:c r="J12" s="41"/>
-      <x:c r="K12" s="41"/>
+      <x:c r="J12" s="37"/>
+      <x:c r="K12" s="37"/>
       <x:c r="L12" s="1"/>
       <x:c r="M12" s="1"/>
       <x:c r="O12" s="1"/>
@@ -4606,11 +2377,11 @@
       <x:c r="A13" s="7"/>
       <x:c r="B13" s="26"/>
       <x:c r="C13" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D13" s="27"/>
       <x:c r="E13" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F13" s="29">
         <x:v>0</x:v>
@@ -4618,8 +2389,8 @@
       <x:c r="G13" s="28"/>
       <x:c r="H13" s="28"/>
       <x:c r="I13" s="27"/>
-      <x:c r="J13" s="41"/>
-      <x:c r="K13" s="41"/>
+      <x:c r="J13" s="37"/>
+      <x:c r="K13" s="37"/>
       <x:c r="L13" s="1"/>
       <x:c r="M13" s="1"/>
       <x:c r="O13" s="1"/>
@@ -4640,11 +2411,11 @@
       <x:c r="A14" s="5"/>
       <x:c r="B14" s="6"/>
       <x:c r="C14" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D14" s="1"/>
       <x:c r="E14" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F14" s="29">
         <x:v>0</x:v>
@@ -4652,8 +2423,8 @@
       <x:c r="G14" s="4"/>
       <x:c r="H14" s="4"/>
       <x:c r="I14" s="1"/>
-      <x:c r="J14" s="41"/>
-      <x:c r="K14" s="41"/>
+      <x:c r="J14" s="37"/>
+      <x:c r="K14" s="37"/>
       <x:c r="L14" s="1"/>
       <x:c r="M14" s="1"/>
       <x:c r="O14" s="1"/>
@@ -4672,10 +2443,10 @@
     </x:row>
     <x:row r="15" spans="1:27" ht="13.19999999999999928946">
       <x:c r="A15" s="13" t="s">
-        <x:v>12</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B15" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C15" s="14"/>
       <x:c r="D15" s="14"/>
@@ -4684,8 +2455,8 @@
       <x:c r="G15" s="15"/>
       <x:c r="H15" s="15"/>
       <x:c r="I15" s="14"/>
-      <x:c r="J15" s="41"/>
-      <x:c r="K15" s="41"/>
+      <x:c r="J15" s="37"/>
+      <x:c r="K15" s="37"/>
       <x:c r="L15" s="1"/>
       <x:c r="M15" s="1"/>
       <x:c r="O15" s="1"/>
@@ -4706,11 +2477,11 @@
       <x:c r="A16" s="21"/>
       <x:c r="B16" s="24"/>
       <x:c r="C16" s="18" t="s">
-        <x:v>99</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D16" s="18"/>
       <x:c r="E16" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F16" s="29">
         <x:v>0</x:v>
@@ -4718,8 +2489,8 @@
       <x:c r="G16" s="25"/>
       <x:c r="H16" s="25"/>
       <x:c r="I16" s="18"/>
-      <x:c r="J16" s="41"/>
-      <x:c r="K16" s="41"/>
+      <x:c r="J16" s="37"/>
+      <x:c r="K16" s="37"/>
       <x:c r="L16" s="1"/>
       <x:c r="M16" s="1"/>
       <x:c r="O16" s="1"/>
@@ -4740,11 +2511,11 @@
       <x:c r="A17" s="21"/>
       <x:c r="B17" s="24"/>
       <x:c r="C17" s="18" t="s">
-        <x:v>135</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D17" s="18"/>
       <x:c r="E17" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F17" s="29">
         <x:v>0</x:v>
@@ -4752,8 +2523,8 @@
       <x:c r="G17" s="25"/>
       <x:c r="H17" s="25"/>
       <x:c r="I17" s="18"/>
-      <x:c r="J17" s="41"/>
-      <x:c r="K17" s="41"/>
+      <x:c r="J17" s="37"/>
+      <x:c r="K17" s="37"/>
       <x:c r="L17" s="1"/>
       <x:c r="M17" s="1"/>
       <x:c r="O17" s="1"/>
@@ -4774,11 +2545,11 @@
       <x:c r="A18" s="21"/>
       <x:c r="B18" s="24"/>
       <x:c r="C18" s="18" t="s">
-        <x:v>122</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D18" s="18"/>
       <x:c r="E18" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F18" s="29">
         <x:v>0</x:v>
@@ -4786,8 +2557,8 @@
       <x:c r="G18" s="25"/>
       <x:c r="H18" s="25"/>
       <x:c r="I18" s="18"/>
-      <x:c r="J18" s="43"/>
-      <x:c r="K18" s="41"/>
+      <x:c r="J18" s="39"/>
+      <x:c r="K18" s="37"/>
       <x:c r="L18" s="1"/>
       <x:c r="M18" s="1"/>
       <x:c r="O18" s="1"/>
@@ -4808,11 +2579,11 @@
       <x:c r="A19" s="21"/>
       <x:c r="B19" s="24"/>
       <x:c r="C19" s="18" t="s">
-        <x:v>117</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D19" s="18"/>
       <x:c r="E19" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F19" s="29">
         <x:v>0</x:v>
@@ -4820,7 +2591,7 @@
       <x:c r="G19" s="25"/>
       <x:c r="H19" s="25"/>
       <x:c r="I19" s="18"/>
-      <x:c r="K19" s="41"/>
+      <x:c r="K19" s="37"/>
       <x:c r="L19" s="1"/>
       <x:c r="M19" s="1"/>
       <x:c r="O19" s="1"/>
@@ -4841,11 +2612,11 @@
       <x:c r="A20" s="21"/>
       <x:c r="B20" s="24"/>
       <x:c r="C20" s="18" t="s">
-        <x:v>98</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D20" s="18"/>
       <x:c r="E20" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F20" s="29">
         <x:v>0</x:v>
@@ -4853,8 +2624,8 @@
       <x:c r="G20" s="25"/>
       <x:c r="H20" s="25"/>
       <x:c r="I20" s="18"/>
-      <x:c r="J20" s="43"/>
-      <x:c r="K20" s="41"/>
+      <x:c r="J20" s="39"/>
+      <x:c r="K20" s="37"/>
       <x:c r="L20" s="1"/>
       <x:c r="M20" s="1"/>
       <x:c r="O20" s="1"/>
@@ -4874,7 +2645,7 @@
     <x:row r="21" spans="1:27" ht="13.19999999999999928946">
       <x:c r="A21" s="21"/>
       <x:c r="B21" s="22" t="s">
-        <x:v>46</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C21" s="17"/>
       <x:c r="D21" s="17"/>
@@ -4883,7 +2654,7 @@
       <x:c r="G21" s="23"/>
       <x:c r="H21" s="23"/>
       <x:c r="I21" s="17"/>
-      <x:c r="K21" s="41"/>
+      <x:c r="K21" s="37"/>
       <x:c r="L21" s="1"/>
       <x:c r="M21" s="1"/>
       <x:c r="O21" s="1"/>
@@ -4904,11 +2675,11 @@
       <x:c r="A22" s="21"/>
       <x:c r="B22" s="27"/>
       <x:c r="C22" s="18" t="s">
-        <x:v>150</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D22" s="18"/>
       <x:c r="E22" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F22" s="29">
         <x:v>0</x:v>
@@ -4916,8 +2687,8 @@
       <x:c r="G22" s="25"/>
       <x:c r="H22" s="25"/>
       <x:c r="I22" s="18"/>
-      <x:c r="J22" s="43"/>
-      <x:c r="K22" s="41"/>
+      <x:c r="J22" s="39"/>
+      <x:c r="K22" s="37"/>
       <x:c r="L22" s="1"/>
       <x:c r="M22" s="1"/>
       <x:c r="O22" s="1"/>
@@ -4938,11 +2709,11 @@
       <x:c r="A23" s="21"/>
       <x:c r="B23" s="27"/>
       <x:c r="C23" s="18" t="s">
-        <x:v>171</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D23" s="18"/>
       <x:c r="E23" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F23" s="29">
         <x:v>0</x:v>
@@ -4950,8 +2721,8 @@
       <x:c r="G23" s="25"/>
       <x:c r="H23" s="25"/>
       <x:c r="I23" s="18"/>
-      <x:c r="J23" s="41"/>
-      <x:c r="K23" s="41"/>
+      <x:c r="J23" s="37"/>
+      <x:c r="K23" s="37"/>
       <x:c r="L23" s="1"/>
       <x:c r="M23" s="1"/>
       <x:c r="O23" s="1"/>
@@ -4972,11 +2743,11 @@
       <x:c r="A24" s="21"/>
       <x:c r="B24" s="27"/>
       <x:c r="C24" s="18" t="s">
-        <x:v>116</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D24" s="18"/>
       <x:c r="E24" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F24" s="29">
         <x:v>0</x:v>
@@ -4984,8 +2755,8 @@
       <x:c r="G24" s="25"/>
       <x:c r="H24" s="25"/>
       <x:c r="I24" s="18"/>
-      <x:c r="J24" s="41"/>
-      <x:c r="K24" s="41"/>
+      <x:c r="J24" s="37"/>
+      <x:c r="K24" s="37"/>
       <x:c r="L24" s="1"/>
       <x:c r="M24" s="1"/>
       <x:c r="O24" s="1"/>
@@ -5006,11 +2777,11 @@
       <x:c r="A25" s="21"/>
       <x:c r="B25" s="27"/>
       <x:c r="C25" s="18" t="s">
-        <x:v>168</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D25" s="18"/>
       <x:c r="E25" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F25" s="29">
         <x:v>0</x:v>
@@ -5018,8 +2789,8 @@
       <x:c r="G25" s="25"/>
       <x:c r="H25" s="25"/>
       <x:c r="I25" s="18"/>
-      <x:c r="J25" s="41"/>
-      <x:c r="K25" s="41"/>
+      <x:c r="J25" s="37"/>
+      <x:c r="K25" s="37"/>
       <x:c r="L25" s="1"/>
       <x:c r="M25" s="1"/>
       <x:c r="O25" s="1"/>
@@ -5040,11 +2811,11 @@
       <x:c r="A26" s="21"/>
       <x:c r="B26" s="27"/>
       <x:c r="C26" s="18" t="s">
-        <x:v>169</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D26" s="18"/>
       <x:c r="E26" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F26" s="29">
         <x:v>0</x:v>
@@ -5052,8 +2823,8 @@
       <x:c r="G26" s="25"/>
       <x:c r="H26" s="25"/>
       <x:c r="I26" s="18"/>
-      <x:c r="J26" s="41"/>
-      <x:c r="K26" s="41"/>
+      <x:c r="J26" s="37"/>
+      <x:c r="K26" s="37"/>
       <x:c r="L26" s="1"/>
       <x:c r="M26" s="1"/>
       <x:c r="O26" s="1"/>
@@ -5073,7 +2844,7 @@
     <x:row r="27" spans="1:27" ht="13.19999999999999928946">
       <x:c r="A27" s="21"/>
       <x:c r="B27" s="22" t="s">
-        <x:v>45</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C27" s="17"/>
       <x:c r="D27" s="17"/>
@@ -5082,8 +2853,8 @@
       <x:c r="G27" s="23"/>
       <x:c r="H27" s="23"/>
       <x:c r="I27" s="17"/>
-      <x:c r="J27" s="41"/>
-      <x:c r="K27" s="41"/>
+      <x:c r="J27" s="37"/>
+      <x:c r="K27" s="37"/>
       <x:c r="L27" s="1"/>
       <x:c r="M27" s="1"/>
       <x:c r="O27" s="1"/>
@@ -5104,11 +2875,11 @@
       <x:c r="A28" s="7"/>
       <x:c r="B28" s="20"/>
       <x:c r="C28" s="18" t="s">
-        <x:v>170</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D28" s="1"/>
       <x:c r="E28" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F28" s="29">
         <x:v>0</x:v>
@@ -5116,8 +2887,8 @@
       <x:c r="G28" s="4"/>
       <x:c r="H28" s="4"/>
       <x:c r="I28" s="1"/>
-      <x:c r="J28" s="41"/>
-      <x:c r="K28" s="41"/>
+      <x:c r="J28" s="37"/>
+      <x:c r="K28" s="37"/>
       <x:c r="L28" s="1"/>
       <x:c r="M28" s="1"/>
       <x:c r="O28" s="1"/>
@@ -5138,11 +2909,11 @@
       <x:c r="A29" s="7"/>
       <x:c r="B29" s="20"/>
       <x:c r="C29" s="18" t="s">
-        <x:v>175</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D29" s="1"/>
       <x:c r="E29" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F29" s="29">
         <x:v>0</x:v>
@@ -5150,8 +2921,8 @@
       <x:c r="G29" s="4"/>
       <x:c r="H29" s="4"/>
       <x:c r="I29" s="1"/>
-      <x:c r="J29" s="41"/>
-      <x:c r="K29" s="41"/>
+      <x:c r="J29" s="37"/>
+      <x:c r="K29" s="37"/>
       <x:c r="L29" s="1"/>
       <x:c r="M29" s="1"/>
       <x:c r="O29" s="1"/>
@@ -5170,10 +2941,10 @@
     </x:row>
     <x:row r="30" spans="3:6" customHeight="1">
       <x:c r="C30" s="18" t="s">
-        <x:v>128</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="E30" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F30" s="29">
         <x:v>0</x:v>
@@ -5181,10 +2952,10 @@
     </x:row>
     <x:row r="31" spans="3:6" customHeight="1">
       <x:c r="C31" s="18" t="s">
-        <x:v>115</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E31" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F31" s="29">
         <x:v>0</x:v>
@@ -5192,7 +2963,7 @@
     </x:row>
     <x:row r="32" spans="2:9" customHeight="1">
       <x:c r="B32" s="10" t="s">
-        <x:v>173</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C32" s="10"/>
       <x:c r="D32" s="10"/>
@@ -5205,10 +2976,10 @@
     <x:row r="33" spans="2:6" customHeight="1">
       <x:c r="B33" s="1"/>
       <x:c r="C33" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E33" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F33" s="29">
         <x:v>0</x:v>
@@ -5217,10 +2988,10 @@
     <x:row r="34" spans="2:6" customHeight="1">
       <x:c r="B34" s="1"/>
       <x:c r="C34" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E34" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F34" s="29">
         <x:v>0</x:v>
@@ -5229,10 +3000,10 @@
     <x:row r="35" spans="2:6" customHeight="1">
       <x:c r="B35" s="1"/>
       <x:c r="C35" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E35" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F35" s="29">
         <x:v>0</x:v>
@@ -5240,10 +3011,10 @@
     </x:row>
     <x:row r="36" spans="1:27" ht="13.19999999999999928946">
       <x:c r="A36" s="13" t="s">
-        <x:v>24</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B36" s="14" t="s">
-        <x:v>76</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C36" s="14"/>
       <x:c r="D36" s="14"/>
@@ -5252,8 +3023,8 @@
       <x:c r="G36" s="15"/>
       <x:c r="H36" s="15"/>
       <x:c r="I36" s="14"/>
-      <x:c r="J36" s="41"/>
-      <x:c r="K36" s="44"/>
+      <x:c r="J36" s="37"/>
+      <x:c r="K36" s="40"/>
       <x:c r="L36" s="1"/>
       <x:c r="M36" s="1"/>
       <x:c r="O36" s="1"/>
@@ -5274,11 +3045,11 @@
       <x:c r="A37" s="7"/>
       <x:c r="B37" s="1"/>
       <x:c r="C37" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D37" s="1"/>
       <x:c r="E37" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F37" s="29">
         <x:v>0</x:v>
@@ -5286,8 +3057,8 @@
       <x:c r="G37" s="4"/>
       <x:c r="H37" s="4"/>
       <x:c r="I37" s="1"/>
-      <x:c r="J37" s="41"/>
-      <x:c r="K37" s="44"/>
+      <x:c r="J37" s="37"/>
+      <x:c r="K37" s="40"/>
       <x:c r="L37" s="1"/>
       <x:c r="M37" s="1"/>
       <x:c r="N37" s="1"/>
@@ -5309,11 +3080,11 @@
       <x:c r="A38" s="7"/>
       <x:c r="B38" s="1"/>
       <x:c r="C38" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="D38" s="1"/>
       <x:c r="E38" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F38" s="29">
         <x:v>0</x:v>
@@ -5321,8 +3092,8 @@
       <x:c r="G38" s="4"/>
       <x:c r="H38" s="4"/>
       <x:c r="I38" s="1"/>
-      <x:c r="J38" s="41"/>
-      <x:c r="K38" s="44"/>
+      <x:c r="J38" s="37"/>
+      <x:c r="K38" s="40"/>
       <x:c r="L38" s="1"/>
       <x:c r="M38" s="1"/>
       <x:c r="N38" s="1"/>
@@ -5344,11 +3115,11 @@
       <x:c r="A39" s="7"/>
       <x:c r="B39" s="1"/>
       <x:c r="C39" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D39" s="1"/>
       <x:c r="E39" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F39" s="29">
         <x:v>0</x:v>
@@ -5356,8 +3127,8 @@
       <x:c r="G39" s="4"/>
       <x:c r="H39" s="4"/>
       <x:c r="I39" s="1"/>
-      <x:c r="J39" s="41"/>
-      <x:c r="K39" s="44"/>
+      <x:c r="J39" s="37"/>
+      <x:c r="K39" s="40"/>
       <x:c r="L39" s="1"/>
       <x:c r="M39" s="1"/>
       <x:c r="N39" s="1"/>
@@ -5379,11 +3150,11 @@
       <x:c r="A40" s="7"/>
       <x:c r="B40" s="1"/>
       <x:c r="C40" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D40" s="1"/>
       <x:c r="E40" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F40" s="29">
         <x:v>0</x:v>
@@ -5391,8 +3162,8 @@
       <x:c r="G40" s="4"/>
       <x:c r="H40" s="4"/>
       <x:c r="I40" s="1"/>
-      <x:c r="J40" s="41"/>
-      <x:c r="K40" s="41"/>
+      <x:c r="J40" s="37"/>
+      <x:c r="K40" s="37"/>
       <x:c r="L40" s="1"/>
       <x:c r="M40" s="1"/>
       <x:c r="N40" s="1"/>
@@ -5414,11 +3185,11 @@
       <x:c r="A41" s="7"/>
       <x:c r="B41" s="1"/>
       <x:c r="C41" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D41" s="1"/>
       <x:c r="E41" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F41" s="29">
         <x:v>0</x:v>
@@ -5426,8 +3197,8 @@
       <x:c r="G41" s="4"/>
       <x:c r="H41" s="4"/>
       <x:c r="I41" s="1"/>
-      <x:c r="J41" s="41"/>
-      <x:c r="K41" s="41"/>
+      <x:c r="J41" s="37"/>
+      <x:c r="K41" s="37"/>
       <x:c r="L41" s="1"/>
       <x:c r="M41" s="1"/>
       <x:c r="N41" s="1"/>
@@ -5449,11 +3220,11 @@
       <x:c r="A42" s="7"/>
       <x:c r="B42" s="1"/>
       <x:c r="C42" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D42" s="1"/>
       <x:c r="E42" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F42" s="29">
         <x:v>0</x:v>
@@ -5461,8 +3232,8 @@
       <x:c r="G42" s="4"/>
       <x:c r="H42" s="4"/>
       <x:c r="I42" s="1"/>
-      <x:c r="J42" s="41"/>
-      <x:c r="K42" s="41"/>
+      <x:c r="J42" s="37"/>
+      <x:c r="K42" s="37"/>
       <x:c r="L42" s="1"/>
       <x:c r="M42" s="1"/>
       <x:c r="N42" s="1"/>
@@ -5484,11 +3255,11 @@
       <x:c r="A43" s="7"/>
       <x:c r="B43" s="1"/>
       <x:c r="C43" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D43" s="1"/>
       <x:c r="E43" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F43" s="29">
         <x:v>0</x:v>
@@ -5496,8 +3267,8 @@
       <x:c r="G43" s="4"/>
       <x:c r="H43" s="4"/>
       <x:c r="I43" s="1"/>
-      <x:c r="J43" s="41"/>
-      <x:c r="K43" s="41"/>
+      <x:c r="J43" s="37"/>
+      <x:c r="K43" s="37"/>
       <x:c r="L43" s="1"/>
       <x:c r="M43" s="1"/>
       <x:c r="N43" s="1"/>
@@ -5519,11 +3290,11 @@
       <x:c r="A44" s="7"/>
       <x:c r="B44" s="1"/>
       <x:c r="C44" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D44" s="1"/>
       <x:c r="E44" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F44" s="29">
         <x:v>0</x:v>
@@ -5531,8 +3302,8 @@
       <x:c r="G44" s="4"/>
       <x:c r="H44" s="4"/>
       <x:c r="I44" s="1"/>
-      <x:c r="J44" s="41"/>
-      <x:c r="K44" s="41"/>
+      <x:c r="J44" s="37"/>
+      <x:c r="K44" s="37"/>
       <x:c r="L44" s="1"/>
       <x:c r="M44" s="1"/>
       <x:c r="N44" s="1"/>
@@ -5554,11 +3325,11 @@
       <x:c r="A45" s="7"/>
       <x:c r="B45" s="1"/>
       <x:c r="C45" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D45" s="1"/>
       <x:c r="E45" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F45" s="29">
         <x:v>0</x:v>
@@ -5566,8 +3337,8 @@
       <x:c r="G45" s="4"/>
       <x:c r="H45" s="4"/>
       <x:c r="I45" s="1"/>
-      <x:c r="J45" s="41"/>
-      <x:c r="K45" s="41"/>
+      <x:c r="J45" s="37"/>
+      <x:c r="K45" s="37"/>
       <x:c r="L45" s="1"/>
       <x:c r="M45" s="1"/>
       <x:c r="N45" s="1"/>
@@ -5589,11 +3360,11 @@
       <x:c r="A46" s="7"/>
       <x:c r="B46" s="1"/>
       <x:c r="C46" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D46" s="1"/>
       <x:c r="E46" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F46" s="29">
         <x:v>0</x:v>
@@ -5601,8 +3372,8 @@
       <x:c r="G46" s="4"/>
       <x:c r="H46" s="4"/>
       <x:c r="I46" s="1"/>
-      <x:c r="J46" s="41"/>
-      <x:c r="K46" s="41"/>
+      <x:c r="J46" s="37"/>
+      <x:c r="K46" s="37"/>
       <x:c r="L46" s="1"/>
       <x:c r="M46" s="1"/>
       <x:c r="N46" s="1"/>
@@ -5624,11 +3395,11 @@
       <x:c r="A47" s="7"/>
       <x:c r="B47" s="1"/>
       <x:c r="C47" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="D47" s="1"/>
       <x:c r="E47" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F47" s="29">
         <x:v>0</x:v>
@@ -5636,8 +3407,8 @@
       <x:c r="G47" s="4"/>
       <x:c r="H47" s="4"/>
       <x:c r="I47" s="1"/>
-      <x:c r="J47" s="41"/>
-      <x:c r="K47" s="44"/>
+      <x:c r="J47" s="37"/>
+      <x:c r="K47" s="40"/>
       <x:c r="L47" s="1"/>
       <x:c r="M47" s="1"/>
       <x:c r="N47" s="1"/>
@@ -5659,11 +3430,11 @@
       <x:c r="A48" s="7"/>
       <x:c r="B48" s="1"/>
       <x:c r="C48" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D48" s="1"/>
       <x:c r="E48" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F48" s="29">
         <x:v>0</x:v>
@@ -5671,8 +3442,8 @@
       <x:c r="G48" s="4"/>
       <x:c r="H48" s="4"/>
       <x:c r="I48" s="1"/>
-      <x:c r="J48" s="41"/>
-      <x:c r="K48" s="44"/>
+      <x:c r="J48" s="37"/>
+      <x:c r="K48" s="40"/>
       <x:c r="L48" s="1"/>
       <x:c r="M48" s="1"/>
       <x:c r="N48" s="1"/>
@@ -5693,17 +3464,17 @@
     <x:row r="49" spans="1:27" ht="13.19999999999999928946">
       <x:c r="A49" s="7"/>
       <x:c r="B49" s="10" t="s">
-        <x:v>100</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C49" s="10"/>
       <x:c r="D49" s="10"/>
       <x:c r="E49" s="10"/>
       <x:c r="F49" s="10"/>
-      <x:c r="G49" s="45"/>
-      <x:c r="H49" s="45"/>
+      <x:c r="G49" s="41"/>
+      <x:c r="H49" s="41"/>
       <x:c r="I49" s="10"/>
-      <x:c r="J49" s="44"/>
-      <x:c r="K49" s="44"/>
+      <x:c r="J49" s="40"/>
+      <x:c r="K49" s="40"/>
       <x:c r="L49" s="1"/>
       <x:c r="M49" s="1"/>
       <x:c r="N49" s="1"/>
@@ -5722,371 +3493,371 @@
       <x:c r="AA49" s="1"/>
     </x:row>
     <x:row r="50" spans="1:11" s="32" customFormat="1" ht="13.19999999999999928946" customHeight="1">
-      <x:c r="A50" s="46"/>
+      <x:c r="A50" s="42"/>
       <x:c r="C50" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E50" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F50" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G50" s="47"/>
-      <x:c r="H50" s="47"/>
-      <x:c r="J50" s="48"/>
-      <x:c r="K50" s="48"/>
+      <x:c r="G50" s="43"/>
+      <x:c r="H50" s="43"/>
+      <x:c r="J50" s="44"/>
+      <x:c r="K50" s="44"/>
     </x:row>
     <x:row r="51" spans="1:11" s="32" customFormat="1" ht="13.19999999999999928946" customHeight="1">
-      <x:c r="A51" s="46"/>
+      <x:c r="A51" s="42"/>
       <x:c r="C51" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E51" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F51" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G51" s="47"/>
-      <x:c r="H51" s="47"/>
-      <x:c r="J51" s="48"/>
-      <x:c r="K51" s="48"/>
+      <x:c r="G51" s="43"/>
+      <x:c r="H51" s="43"/>
+      <x:c r="J51" s="44"/>
+      <x:c r="K51" s="44"/>
     </x:row>
     <x:row r="52" spans="1:11" s="32" customFormat="1" ht="13.19999999999999928946" customHeight="1">
-      <x:c r="A52" s="46"/>
+      <x:c r="A52" s="42"/>
       <x:c r="C52" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E52" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F52" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G52" s="47"/>
-      <x:c r="H52" s="47"/>
-      <x:c r="J52" s="48"/>
-      <x:c r="K52" s="48"/>
+      <x:c r="G52" s="43"/>
+      <x:c r="H52" s="43"/>
+      <x:c r="J52" s="44"/>
+      <x:c r="K52" s="44"/>
     </x:row>
     <x:row r="53" spans="1:11" s="32" customFormat="1" ht="13.19999999999999928946" customHeight="1">
-      <x:c r="A53" s="46"/>
+      <x:c r="A53" s="42"/>
       <x:c r="C53" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E53" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F53" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G53" s="47"/>
-      <x:c r="H53" s="47"/>
-      <x:c r="J53" s="48"/>
-      <x:c r="K53" s="48"/>
+      <x:c r="G53" s="43"/>
+      <x:c r="H53" s="43"/>
+      <x:c r="J53" s="44"/>
+      <x:c r="K53" s="44"/>
     </x:row>
     <x:row r="54" spans="1:11" s="32" customFormat="1" ht="13.19999999999999928946" customHeight="1">
-      <x:c r="A54" s="46"/>
+      <x:c r="A54" s="42"/>
       <x:c r="C54" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E54" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F54" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G54" s="47"/>
-      <x:c r="H54" s="47"/>
-      <x:c r="J54" s="48"/>
-      <x:c r="K54" s="48"/>
+      <x:c r="G54" s="43"/>
+      <x:c r="H54" s="43"/>
+      <x:c r="J54" s="44"/>
+      <x:c r="K54" s="44"/>
     </x:row>
     <x:row r="55" spans="1:11" s="32" customFormat="1" ht="13.19999999999999928946" customHeight="1">
-      <x:c r="A55" s="46"/>
+      <x:c r="A55" s="42"/>
       <x:c r="C55" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E55" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F55" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G55" s="47"/>
-      <x:c r="H55" s="47"/>
-      <x:c r="J55" s="48"/>
-      <x:c r="K55" s="48"/>
+      <x:c r="G55" s="43"/>
+      <x:c r="H55" s="43"/>
+      <x:c r="J55" s="44"/>
+      <x:c r="K55" s="44"/>
     </x:row>
     <x:row r="56" spans="1:11" s="32" customFormat="1" ht="13.19999999999999928946" customHeight="1">
-      <x:c r="A56" s="46"/>
+      <x:c r="A56" s="42"/>
       <x:c r="C56" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E56" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F56" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G56" s="47"/>
-      <x:c r="H56" s="47"/>
-      <x:c r="J56" s="48"/>
-      <x:c r="K56" s="48"/>
+      <x:c r="G56" s="43"/>
+      <x:c r="H56" s="43"/>
+      <x:c r="J56" s="44"/>
+      <x:c r="K56" s="44"/>
     </x:row>
     <x:row r="57" spans="1:11" s="32" customFormat="1" ht="13.19999999999999928946" customHeight="1">
-      <x:c r="A57" s="46"/>
+      <x:c r="A57" s="42"/>
       <x:c r="C57" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E57" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F57" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G57" s="47"/>
-      <x:c r="H57" s="47"/>
-      <x:c r="J57" s="48"/>
-      <x:c r="K57" s="48"/>
+      <x:c r="G57" s="43"/>
+      <x:c r="H57" s="43"/>
+      <x:c r="J57" s="44"/>
+      <x:c r="K57" s="44"/>
     </x:row>
     <x:row r="58" spans="1:11" s="32" customFormat="1" ht="13.19999999999999928946" customHeight="1">
-      <x:c r="A58" s="46"/>
+      <x:c r="A58" s="42"/>
       <x:c r="C58" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E58" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F58" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G58" s="47"/>
-      <x:c r="H58" s="47"/>
-      <x:c r="J58" s="48"/>
-      <x:c r="K58" s="48"/>
+      <x:c r="G58" s="43"/>
+      <x:c r="H58" s="43"/>
+      <x:c r="J58" s="44"/>
+      <x:c r="K58" s="44"/>
     </x:row>
     <x:row r="59" spans="1:11" s="32" customFormat="1" ht="13.19999999999999928946" customHeight="1">
-      <x:c r="A59" s="46"/>
+      <x:c r="A59" s="42"/>
       <x:c r="C59" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E59" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F59" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G59" s="47"/>
-      <x:c r="H59" s="47"/>
-      <x:c r="J59" s="48"/>
-      <x:c r="K59" s="48"/>
+      <x:c r="G59" s="43"/>
+      <x:c r="H59" s="43"/>
+      <x:c r="J59" s="44"/>
+      <x:c r="K59" s="44"/>
     </x:row>
     <x:row r="60" spans="1:11" s="32" customFormat="1" ht="13.19999999999999928946" customHeight="1">
-      <x:c r="A60" s="46"/>
+      <x:c r="A60" s="42"/>
       <x:c r="C60" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E60" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F60" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G60" s="47"/>
-      <x:c r="H60" s="47"/>
-      <x:c r="J60" s="48"/>
-      <x:c r="K60" s="48"/>
+      <x:c r="G60" s="43"/>
+      <x:c r="H60" s="43"/>
+      <x:c r="J60" s="44"/>
+      <x:c r="K60" s="44"/>
     </x:row>
     <x:row r="61" spans="1:11" s="32" customFormat="1" ht="13.19999999999999928946" customHeight="1">
-      <x:c r="A61" s="46"/>
+      <x:c r="A61" s="42"/>
       <x:c r="C61" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F61" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G61" s="47"/>
-      <x:c r="H61" s="47"/>
-      <x:c r="J61" s="48"/>
-      <x:c r="K61" s="48"/>
+      <x:c r="G61" s="43"/>
+      <x:c r="H61" s="43"/>
+      <x:c r="J61" s="44"/>
+      <x:c r="K61" s="44"/>
     </x:row>
     <x:row r="62" spans="1:11" s="32" customFormat="1" ht="13.19999999999999928946" customHeight="1">
-      <x:c r="A62" s="46"/>
+      <x:c r="A62" s="42"/>
       <x:c r="C62" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E62" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F62" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G62" s="47"/>
-      <x:c r="H62" s="47"/>
-      <x:c r="J62" s="48"/>
-      <x:c r="K62" s="48"/>
+      <x:c r="G62" s="43"/>
+      <x:c r="H62" s="43"/>
+      <x:c r="J62" s="44"/>
+      <x:c r="K62" s="44"/>
     </x:row>
     <x:row r="63" spans="1:11" s="32" customFormat="1" ht="13.19999999999999928946" customHeight="1">
-      <x:c r="A63" s="46"/>
+      <x:c r="A63" s="42"/>
       <x:c r="C63" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E63" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F63" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G63" s="47"/>
-      <x:c r="H63" s="47"/>
-      <x:c r="J63" s="48"/>
-      <x:c r="K63" s="48"/>
+      <x:c r="G63" s="43"/>
+      <x:c r="H63" s="43"/>
+      <x:c r="J63" s="44"/>
+      <x:c r="K63" s="44"/>
     </x:row>
     <x:row r="64" spans="1:11" s="32" customFormat="1" ht="13.19999999999999928946" customHeight="1">
-      <x:c r="A64" s="46"/>
+      <x:c r="A64" s="42"/>
       <x:c r="C64" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E64" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F64" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G64" s="47"/>
-      <x:c r="H64" s="47"/>
-      <x:c r="J64" s="48"/>
-      <x:c r="K64" s="48"/>
+      <x:c r="G64" s="43"/>
+      <x:c r="H64" s="43"/>
+      <x:c r="J64" s="44"/>
+      <x:c r="K64" s="44"/>
     </x:row>
     <x:row r="65" spans="1:11" s="32" customFormat="1" ht="13.19999999999999928946" customHeight="1">
-      <x:c r="A65" s="46"/>
+      <x:c r="A65" s="42"/>
       <x:c r="C65" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E65" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F65" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G65" s="47"/>
-      <x:c r="H65" s="47"/>
-      <x:c r="J65" s="48"/>
-      <x:c r="K65" s="48"/>
+      <x:c r="G65" s="43"/>
+      <x:c r="H65" s="43"/>
+      <x:c r="J65" s="44"/>
+      <x:c r="K65" s="44"/>
     </x:row>
     <x:row r="66" spans="1:11" s="32" customFormat="1" ht="13.19999999999999928946" customHeight="1">
-      <x:c r="A66" s="46"/>
+      <x:c r="A66" s="42"/>
       <x:c r="C66" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E66" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F66" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G66" s="47"/>
-      <x:c r="H66" s="47"/>
-      <x:c r="J66" s="48"/>
-      <x:c r="K66" s="48"/>
+      <x:c r="G66" s="43"/>
+      <x:c r="H66" s="43"/>
+      <x:c r="J66" s="44"/>
+      <x:c r="K66" s="44"/>
     </x:row>
     <x:row r="67" spans="1:11" s="32" customFormat="1" ht="13.19999999999999928946" customHeight="1">
-      <x:c r="A67" s="46"/>
+      <x:c r="A67" s="42"/>
       <x:c r="C67" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E67" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F67" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G67" s="47"/>
-      <x:c r="H67" s="47"/>
-      <x:c r="J67" s="48"/>
-      <x:c r="K67" s="48"/>
+      <x:c r="G67" s="43"/>
+      <x:c r="H67" s="43"/>
+      <x:c r="J67" s="44"/>
+      <x:c r="K67" s="44"/>
     </x:row>
     <x:row r="68" spans="1:11" s="32" customFormat="1" ht="13.19999999999999928946" customHeight="1">
-      <x:c r="A68" s="46"/>
+      <x:c r="A68" s="42"/>
       <x:c r="C68" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E68" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F68" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G68" s="47"/>
-      <x:c r="H68" s="47"/>
-      <x:c r="J68" s="48"/>
-      <x:c r="K68" s="48"/>
+      <x:c r="G68" s="43"/>
+      <x:c r="H68" s="43"/>
+      <x:c r="J68" s="44"/>
+      <x:c r="K68" s="44"/>
     </x:row>
     <x:row r="69" spans="1:11" s="32" customFormat="1" ht="13.19999999999999928946" customHeight="1">
-      <x:c r="A69" s="46"/>
+      <x:c r="A69" s="42"/>
       <x:c r="C69" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E69" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F69" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G69" s="47"/>
-      <x:c r="H69" s="47"/>
-      <x:c r="J69" s="48"/>
-      <x:c r="K69" s="48"/>
+      <x:c r="G69" s="43"/>
+      <x:c r="H69" s="43"/>
+      <x:c r="J69" s="44"/>
+      <x:c r="K69" s="44"/>
     </x:row>
     <x:row r="70" spans="1:11" s="32" customFormat="1" ht="13.19999999999999928946" customHeight="1">
-      <x:c r="A70" s="46"/>
+      <x:c r="A70" s="42"/>
       <x:c r="C70" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E70" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F70" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G70" s="47"/>
-      <x:c r="H70" s="47"/>
-      <x:c r="J70" s="48"/>
-      <x:c r="K70" s="48"/>
+      <x:c r="G70" s="43"/>
+      <x:c r="H70" s="43"/>
+      <x:c r="J70" s="44"/>
+      <x:c r="K70" s="44"/>
     </x:row>
     <x:row r="71" spans="1:11" s="32" customFormat="1" ht="13.19999999999999928946" customHeight="1">
-      <x:c r="A71" s="46"/>
+      <x:c r="A71" s="42"/>
       <x:c r="C71" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E71" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F71" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G71" s="47"/>
-      <x:c r="H71" s="47"/>
-      <x:c r="J71" s="48"/>
-      <x:c r="K71" s="48"/>
+      <x:c r="G71" s="43"/>
+      <x:c r="H71" s="43"/>
+      <x:c r="J71" s="44"/>
+      <x:c r="K71" s="44"/>
     </x:row>
     <x:row r="72" spans="1:27" ht="13.19999999999999928946">
       <x:c r="A72" s="7"/>
       <x:c r="B72" s="10" t="s">
-        <x:v>124</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C72" s="10"/>
       <x:c r="D72" s="10"/>
       <x:c r="E72" s="10"/>
       <x:c r="F72" s="10"/>
-      <x:c r="G72" s="45"/>
-      <x:c r="H72" s="45"/>
+      <x:c r="G72" s="41"/>
+      <x:c r="H72" s="41"/>
       <x:c r="I72" s="10"/>
-      <x:c r="J72" s="44"/>
-      <x:c r="K72" s="44"/>
+      <x:c r="J72" s="40"/>
+      <x:c r="K72" s="40"/>
       <x:c r="L72" s="1"/>
       <x:c r="M72" s="1"/>
       <x:c r="N72" s="1"/>
@@ -6108,20 +3879,20 @@
       <x:c r="A73" s="7"/>
       <x:c r="B73" s="1"/>
       <x:c r="C73" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D73" s="1"/>
       <x:c r="E73" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F73" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G73" s="49"/>
-      <x:c r="H73" s="49"/>
+      <x:c r="G73" s="45"/>
+      <x:c r="H73" s="45"/>
       <x:c r="I73" s="1"/>
-      <x:c r="J73" s="43"/>
-      <x:c r="K73" s="44"/>
+      <x:c r="J73" s="39"/>
+      <x:c r="K73" s="40"/>
       <x:c r="L73" s="1"/>
       <x:c r="M73" s="1"/>
       <x:c r="N73" s="1"/>
@@ -6143,20 +3914,20 @@
       <x:c r="A74" s="7"/>
       <x:c r="B74" s="1"/>
       <x:c r="C74" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D74" s="1"/>
       <x:c r="E74" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F74" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G74" s="49"/>
-      <x:c r="H74" s="49"/>
+      <x:c r="G74" s="45"/>
+      <x:c r="H74" s="45"/>
       <x:c r="I74" s="1"/>
-      <x:c r="J74" s="43"/>
-      <x:c r="K74" s="44"/>
+      <x:c r="J74" s="39"/>
+      <x:c r="K74" s="40"/>
       <x:c r="L74" s="1"/>
       <x:c r="M74" s="1"/>
       <x:c r="N74" s="1"/>
@@ -6178,20 +3949,20 @@
       <x:c r="A75" s="7"/>
       <x:c r="B75" s="1"/>
       <x:c r="C75" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D75" s="1"/>
       <x:c r="E75" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F75" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G75" s="49"/>
-      <x:c r="H75" s="49"/>
+      <x:c r="G75" s="45"/>
+      <x:c r="H75" s="45"/>
       <x:c r="I75" s="1"/>
-      <x:c r="J75" s="43"/>
-      <x:c r="K75" s="44"/>
+      <x:c r="J75" s="39"/>
+      <x:c r="K75" s="40"/>
       <x:c r="L75" s="1"/>
       <x:c r="M75" s="1"/>
       <x:c r="N75" s="1"/>
@@ -6213,20 +3984,20 @@
       <x:c r="A76" s="7"/>
       <x:c r="B76" s="1"/>
       <x:c r="C76" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D76" s="1"/>
       <x:c r="E76" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F76" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G76" s="49"/>
-      <x:c r="H76" s="49"/>
+      <x:c r="G76" s="45"/>
+      <x:c r="H76" s="45"/>
       <x:c r="I76" s="1"/>
-      <x:c r="J76" s="43"/>
-      <x:c r="K76" s="44"/>
+      <x:c r="J76" s="39"/>
+      <x:c r="K76" s="40"/>
       <x:c r="L76" s="1"/>
       <x:c r="M76" s="1"/>
       <x:c r="N76" s="1"/>
@@ -6248,20 +4019,20 @@
       <x:c r="A77" s="7"/>
       <x:c r="B77" s="1"/>
       <x:c r="C77" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D77" s="1"/>
       <x:c r="E77" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F77" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G77" s="49"/>
-      <x:c r="H77" s="49"/>
+      <x:c r="G77" s="45"/>
+      <x:c r="H77" s="45"/>
       <x:c r="I77" s="1"/>
-      <x:c r="J77" s="43"/>
-      <x:c r="K77" s="44"/>
+      <x:c r="J77" s="39"/>
+      <x:c r="K77" s="40"/>
       <x:c r="L77" s="1"/>
       <x:c r="M77" s="1"/>
       <x:c r="N77" s="1"/>
@@ -6283,20 +4054,20 @@
       <x:c r="A78" s="7"/>
       <x:c r="B78" s="1"/>
       <x:c r="C78" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D78" s="1"/>
       <x:c r="E78" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F78" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G78" s="49"/>
-      <x:c r="H78" s="49"/>
+      <x:c r="G78" s="45"/>
+      <x:c r="H78" s="45"/>
       <x:c r="I78" s="1"/>
-      <x:c r="J78" s="43"/>
-      <x:c r="K78" s="44"/>
+      <x:c r="J78" s="39"/>
+      <x:c r="K78" s="40"/>
       <x:c r="L78" s="1"/>
       <x:c r="M78" s="1"/>
       <x:c r="N78" s="1"/>
@@ -6318,20 +4089,20 @@
       <x:c r="A79" s="7"/>
       <x:c r="B79" s="1"/>
       <x:c r="C79" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D79" s="1"/>
       <x:c r="E79" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F79" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G79" s="49"/>
-      <x:c r="H79" s="49"/>
+      <x:c r="G79" s="45"/>
+      <x:c r="H79" s="45"/>
       <x:c r="I79" s="1"/>
-      <x:c r="J79" s="43"/>
-      <x:c r="K79" s="44"/>
+      <x:c r="J79" s="39"/>
+      <x:c r="K79" s="40"/>
       <x:c r="L79" s="1"/>
       <x:c r="M79" s="1"/>
       <x:c r="N79" s="1"/>
@@ -6353,20 +4124,20 @@
       <x:c r="A80" s="7"/>
       <x:c r="B80" s="1"/>
       <x:c r="C80" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D80" s="1"/>
       <x:c r="E80" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F80" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G80" s="49"/>
-      <x:c r="H80" s="49"/>
+      <x:c r="G80" s="45"/>
+      <x:c r="H80" s="45"/>
       <x:c r="I80" s="1"/>
-      <x:c r="J80" s="43"/>
-      <x:c r="K80" s="44"/>
+      <x:c r="J80" s="39"/>
+      <x:c r="K80" s="40"/>
       <x:c r="L80" s="1"/>
       <x:c r="M80" s="1"/>
       <x:c r="N80" s="1"/>
@@ -6388,20 +4159,20 @@
       <x:c r="A81" s="7"/>
       <x:c r="B81" s="1"/>
       <x:c r="C81" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D81" s="1"/>
       <x:c r="E81" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F81" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G81" s="49"/>
-      <x:c r="H81" s="49"/>
+      <x:c r="G81" s="45"/>
+      <x:c r="H81" s="45"/>
       <x:c r="I81" s="1"/>
-      <x:c r="J81" s="43"/>
-      <x:c r="K81" s="44"/>
+      <x:c r="J81" s="39"/>
+      <x:c r="K81" s="40"/>
       <x:c r="L81" s="1"/>
       <x:c r="M81" s="1"/>
       <x:c r="N81" s="1"/>
@@ -6423,20 +4194,20 @@
       <x:c r="A82" s="7"/>
       <x:c r="B82" s="1"/>
       <x:c r="C82" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D82" s="1"/>
       <x:c r="E82" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F82" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G82" s="49"/>
-      <x:c r="H82" s="49"/>
+      <x:c r="G82" s="45"/>
+      <x:c r="H82" s="45"/>
       <x:c r="I82" s="1"/>
-      <x:c r="J82" s="43"/>
-      <x:c r="K82" s="44"/>
+      <x:c r="J82" s="39"/>
+      <x:c r="K82" s="40"/>
       <x:c r="L82" s="1"/>
       <x:c r="M82" s="1"/>
       <x:c r="N82" s="1"/>
@@ -6458,20 +4229,20 @@
       <x:c r="A83" s="7"/>
       <x:c r="B83" s="1"/>
       <x:c r="C83" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D83" s="1"/>
       <x:c r="E83" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F83" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G83" s="49"/>
-      <x:c r="H83" s="49"/>
+      <x:c r="G83" s="45"/>
+      <x:c r="H83" s="45"/>
       <x:c r="I83" s="1"/>
-      <x:c r="J83" s="43"/>
-      <x:c r="K83" s="44"/>
+      <x:c r="J83" s="39"/>
+      <x:c r="K83" s="40"/>
       <x:c r="L83" s="1"/>
       <x:c r="M83" s="1"/>
       <x:c r="N83" s="1"/>
@@ -6493,20 +4264,20 @@
       <x:c r="A84" s="7"/>
       <x:c r="B84" s="1"/>
       <x:c r="C84" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D84" s="1"/>
       <x:c r="E84" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F84" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G84" s="49"/>
-      <x:c r="H84" s="49"/>
+      <x:c r="G84" s="45"/>
+      <x:c r="H84" s="45"/>
       <x:c r="I84" s="1"/>
-      <x:c r="J84" s="43"/>
-      <x:c r="K84" s="44"/>
+      <x:c r="J84" s="39"/>
+      <x:c r="K84" s="40"/>
       <x:c r="L84" s="1"/>
       <x:c r="M84" s="1"/>
       <x:c r="N84" s="1"/>
@@ -6528,20 +4299,20 @@
       <x:c r="A85" s="7"/>
       <x:c r="B85" s="1"/>
       <x:c r="C85" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D85" s="1"/>
       <x:c r="E85" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F85" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G85" s="49"/>
-      <x:c r="H85" s="49"/>
+      <x:c r="G85" s="45"/>
+      <x:c r="H85" s="45"/>
       <x:c r="I85" s="1"/>
-      <x:c r="J85" s="43"/>
-      <x:c r="K85" s="44"/>
+      <x:c r="J85" s="39"/>
+      <x:c r="K85" s="40"/>
       <x:c r="L85" s="1"/>
       <x:c r="M85" s="1"/>
       <x:c r="N85" s="1"/>
@@ -6563,20 +4334,20 @@
       <x:c r="A86" s="7"/>
       <x:c r="B86" s="1"/>
       <x:c r="C86" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D86" s="1"/>
       <x:c r="E86" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F86" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G86" s="49"/>
-      <x:c r="H86" s="49"/>
+      <x:c r="G86" s="45"/>
+      <x:c r="H86" s="45"/>
       <x:c r="I86" s="1"/>
-      <x:c r="J86" s="43"/>
-      <x:c r="K86" s="44"/>
+      <x:c r="J86" s="39"/>
+      <x:c r="K86" s="40"/>
       <x:c r="L86" s="1"/>
       <x:c r="M86" s="1"/>
       <x:c r="N86" s="1"/>
@@ -6598,20 +4369,20 @@
       <x:c r="A87" s="7"/>
       <x:c r="B87" s="1"/>
       <x:c r="C87" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D87" s="1"/>
       <x:c r="E87" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F87" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G87" s="49"/>
-      <x:c r="H87" s="49"/>
+      <x:c r="G87" s="45"/>
+      <x:c r="H87" s="45"/>
       <x:c r="I87" s="1"/>
-      <x:c r="J87" s="43"/>
-      <x:c r="K87" s="44"/>
+      <x:c r="J87" s="39"/>
+      <x:c r="K87" s="40"/>
       <x:c r="L87" s="1"/>
       <x:c r="M87" s="1"/>
       <x:c r="N87" s="1"/>
@@ -6633,20 +4404,20 @@
       <x:c r="A88" s="7"/>
       <x:c r="B88" s="1"/>
       <x:c r="C88" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D88" s="1"/>
       <x:c r="E88" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F88" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G88" s="49"/>
-      <x:c r="H88" s="49"/>
+      <x:c r="G88" s="45"/>
+      <x:c r="H88" s="45"/>
       <x:c r="I88" s="1"/>
-      <x:c r="J88" s="43"/>
-      <x:c r="K88" s="44"/>
+      <x:c r="J88" s="39"/>
+      <x:c r="K88" s="40"/>
       <x:c r="L88" s="1"/>
       <x:c r="M88" s="1"/>
       <x:c r="N88" s="1"/>
@@ -6668,20 +4439,20 @@
       <x:c r="A89" s="7"/>
       <x:c r="B89" s="1"/>
       <x:c r="C89" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D89" s="1"/>
       <x:c r="E89" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F89" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G89" s="49"/>
-      <x:c r="H89" s="49"/>
+      <x:c r="G89" s="45"/>
+      <x:c r="H89" s="45"/>
       <x:c r="I89" s="1"/>
-      <x:c r="J89" s="43"/>
-      <x:c r="K89" s="44"/>
+      <x:c r="J89" s="39"/>
+      <x:c r="K89" s="40"/>
       <x:c r="L89" s="1"/>
       <x:c r="M89" s="1"/>
       <x:c r="N89" s="1"/>
@@ -6703,20 +4474,20 @@
       <x:c r="A90" s="7"/>
       <x:c r="B90" s="1"/>
       <x:c r="C90" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="D90" s="1"/>
       <x:c r="E90" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F90" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G90" s="49"/>
-      <x:c r="H90" s="49"/>
+      <x:c r="G90" s="45"/>
+      <x:c r="H90" s="45"/>
       <x:c r="I90" s="1"/>
-      <x:c r="J90" s="43"/>
-      <x:c r="K90" s="44"/>
+      <x:c r="J90" s="39"/>
+      <x:c r="K90" s="40"/>
       <x:c r="L90" s="1"/>
       <x:c r="M90" s="1"/>
       <x:c r="N90" s="1"/>
@@ -6738,20 +4509,20 @@
       <x:c r="A91" s="7"/>
       <x:c r="B91" s="1"/>
       <x:c r="C91" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D91" s="1"/>
       <x:c r="E91" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F91" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G91" s="49"/>
-      <x:c r="H91" s="49"/>
+      <x:c r="G91" s="45"/>
+      <x:c r="H91" s="45"/>
       <x:c r="I91" s="1"/>
-      <x:c r="J91" s="43"/>
-      <x:c r="K91" s="44"/>
+      <x:c r="J91" s="39"/>
+      <x:c r="K91" s="40"/>
       <x:c r="L91" s="1"/>
       <x:c r="M91" s="1"/>
       <x:c r="N91" s="1"/>
@@ -6773,20 +4544,20 @@
       <x:c r="A92" s="7"/>
       <x:c r="B92" s="1"/>
       <x:c r="C92" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D92" s="1"/>
       <x:c r="E92" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F92" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G92" s="49"/>
-      <x:c r="H92" s="49"/>
+      <x:c r="G92" s="45"/>
+      <x:c r="H92" s="45"/>
       <x:c r="I92" s="1"/>
-      <x:c r="J92" s="43"/>
-      <x:c r="K92" s="44"/>
+      <x:c r="J92" s="39"/>
+      <x:c r="K92" s="40"/>
       <x:c r="L92" s="1"/>
       <x:c r="M92" s="1"/>
       <x:c r="N92" s="1"/>
@@ -6808,20 +4579,20 @@
       <x:c r="A93" s="7"/>
       <x:c r="B93" s="1"/>
       <x:c r="C93" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D93" s="1"/>
       <x:c r="E93" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F93" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G93" s="49"/>
-      <x:c r="H93" s="49"/>
+      <x:c r="G93" s="45"/>
+      <x:c r="H93" s="45"/>
       <x:c r="I93" s="1"/>
-      <x:c r="J93" s="43"/>
-      <x:c r="K93" s="44"/>
+      <x:c r="J93" s="39"/>
+      <x:c r="K93" s="40"/>
       <x:c r="L93" s="1"/>
       <x:c r="M93" s="1"/>
       <x:c r="N93" s="1"/>
@@ -6843,20 +4614,20 @@
       <x:c r="A94" s="7"/>
       <x:c r="B94" s="1"/>
       <x:c r="C94" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D94" s="1"/>
       <x:c r="E94" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F94" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G94" s="49"/>
-      <x:c r="H94" s="49"/>
+      <x:c r="G94" s="45"/>
+      <x:c r="H94" s="45"/>
       <x:c r="I94" s="1"/>
-      <x:c r="J94" s="43"/>
-      <x:c r="K94" s="44"/>
+      <x:c r="J94" s="39"/>
+      <x:c r="K94" s="40"/>
       <x:c r="L94" s="1"/>
       <x:c r="M94" s="1"/>
       <x:c r="N94" s="1"/>
@@ -6878,20 +4649,20 @@
       <x:c r="A95" s="7"/>
       <x:c r="B95" s="1"/>
       <x:c r="C95" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D95" s="1"/>
       <x:c r="E95" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F95" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G95" s="49"/>
-      <x:c r="H95" s="49"/>
+      <x:c r="G95" s="45"/>
+      <x:c r="H95" s="45"/>
       <x:c r="I95" s="1"/>
-      <x:c r="J95" s="43"/>
-      <x:c r="K95" s="44"/>
+      <x:c r="J95" s="39"/>
+      <x:c r="K95" s="40"/>
       <x:c r="L95" s="1"/>
       <x:c r="M95" s="1"/>
       <x:c r="N95" s="1"/>
@@ -6913,20 +4684,20 @@
       <x:c r="A96" s="7"/>
       <x:c r="B96" s="1"/>
       <x:c r="C96" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D96" s="1"/>
       <x:c r="E96" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F96" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G96" s="49"/>
-      <x:c r="H96" s="49"/>
+      <x:c r="G96" s="45"/>
+      <x:c r="H96" s="45"/>
       <x:c r="I96" s="1"/>
-      <x:c r="J96" s="43"/>
-      <x:c r="K96" s="44"/>
+      <x:c r="J96" s="39"/>
+      <x:c r="K96" s="40"/>
       <x:c r="L96" s="1"/>
       <x:c r="M96" s="1"/>
       <x:c r="N96" s="1"/>
@@ -6948,20 +4719,20 @@
       <x:c r="A97" s="7"/>
       <x:c r="B97" s="1"/>
       <x:c r="C97" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D97" s="1"/>
       <x:c r="E97" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F97" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G97" s="49"/>
-      <x:c r="H97" s="49"/>
+      <x:c r="G97" s="45"/>
+      <x:c r="H97" s="45"/>
       <x:c r="I97" s="1"/>
-      <x:c r="J97" s="43"/>
-      <x:c r="K97" s="44"/>
+      <x:c r="J97" s="39"/>
+      <x:c r="K97" s="40"/>
       <x:c r="L97" s="1"/>
       <x:c r="M97" s="1"/>
       <x:c r="N97" s="1"/>
@@ -6983,20 +4754,20 @@
       <x:c r="A98" s="7"/>
       <x:c r="B98" s="1"/>
       <x:c r="C98" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D98" s="1"/>
       <x:c r="E98" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F98" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G98" s="49"/>
-      <x:c r="H98" s="49"/>
+      <x:c r="G98" s="45"/>
+      <x:c r="H98" s="45"/>
       <x:c r="I98" s="1"/>
-      <x:c r="J98" s="43"/>
-      <x:c r="K98" s="44"/>
+      <x:c r="J98" s="39"/>
+      <x:c r="K98" s="40"/>
       <x:c r="L98" s="1"/>
       <x:c r="M98" s="1"/>
       <x:c r="N98" s="1"/>
@@ -7018,20 +4789,20 @@
       <x:c r="A99" s="7"/>
       <x:c r="B99" s="1"/>
       <x:c r="C99" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D99" s="1"/>
       <x:c r="E99" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F99" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G99" s="49"/>
-      <x:c r="H99" s="49"/>
+      <x:c r="G99" s="45"/>
+      <x:c r="H99" s="45"/>
       <x:c r="I99" s="1"/>
-      <x:c r="J99" s="43"/>
-      <x:c r="K99" s="44"/>
+      <x:c r="J99" s="39"/>
+      <x:c r="K99" s="40"/>
       <x:c r="L99" s="1"/>
       <x:c r="M99" s="1"/>
       <x:c r="N99" s="1"/>
@@ -7053,20 +4824,20 @@
       <x:c r="A100" s="7"/>
       <x:c r="B100" s="1"/>
       <x:c r="C100" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D100" s="1"/>
       <x:c r="E100" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F100" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G100" s="49"/>
-      <x:c r="H100" s="49"/>
+      <x:c r="G100" s="45"/>
+      <x:c r="H100" s="45"/>
       <x:c r="I100" s="1"/>
-      <x:c r="J100" s="43"/>
-      <x:c r="K100" s="44"/>
+      <x:c r="J100" s="39"/>
+      <x:c r="K100" s="40"/>
       <x:c r="L100" s="1"/>
       <x:c r="M100" s="1"/>
       <x:c r="N100" s="1"/>
@@ -7088,20 +4859,20 @@
       <x:c r="A101" s="7"/>
       <x:c r="B101" s="1"/>
       <x:c r="C101" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D101" s="1"/>
       <x:c r="E101" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F101" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G101" s="49"/>
-      <x:c r="H101" s="49"/>
+      <x:c r="G101" s="45"/>
+      <x:c r="H101" s="45"/>
       <x:c r="I101" s="1"/>
-      <x:c r="J101" s="43"/>
-      <x:c r="K101" s="44"/>
+      <x:c r="J101" s="39"/>
+      <x:c r="K101" s="40"/>
       <x:c r="L101" s="1"/>
       <x:c r="M101" s="1"/>
       <x:c r="N101" s="1"/>
@@ -7123,20 +4894,20 @@
       <x:c r="A102" s="7"/>
       <x:c r="B102" s="1"/>
       <x:c r="C102" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D102" s="1"/>
       <x:c r="E102" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F102" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G102" s="49"/>
-      <x:c r="H102" s="49"/>
+      <x:c r="G102" s="45"/>
+      <x:c r="H102" s="45"/>
       <x:c r="I102" s="1"/>
-      <x:c r="J102" s="43"/>
-      <x:c r="K102" s="44"/>
+      <x:c r="J102" s="39"/>
+      <x:c r="K102" s="40"/>
       <x:c r="L102" s="1"/>
       <x:c r="M102" s="1"/>
       <x:c r="N102" s="1"/>
@@ -7158,20 +4929,20 @@
       <x:c r="A103" s="7"/>
       <x:c r="B103" s="1"/>
       <x:c r="C103" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D103" s="1"/>
       <x:c r="E103" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F103" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G103" s="49"/>
-      <x:c r="H103" s="49"/>
+      <x:c r="G103" s="45"/>
+      <x:c r="H103" s="45"/>
       <x:c r="I103" s="1"/>
-      <x:c r="J103" s="43"/>
-      <x:c r="K103" s="44"/>
+      <x:c r="J103" s="39"/>
+      <x:c r="K103" s="40"/>
       <x:c r="L103" s="1"/>
       <x:c r="M103" s="1"/>
       <x:c r="N103" s="1"/>
@@ -7193,20 +4964,20 @@
       <x:c r="A104" s="7"/>
       <x:c r="B104" s="1"/>
       <x:c r="C104" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D104" s="1"/>
       <x:c r="E104" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F104" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G104" s="49"/>
-      <x:c r="H104" s="49"/>
+      <x:c r="G104" s="45"/>
+      <x:c r="H104" s="45"/>
       <x:c r="I104" s="1"/>
-      <x:c r="J104" s="43"/>
-      <x:c r="K104" s="44"/>
+      <x:c r="J104" s="39"/>
+      <x:c r="K104" s="40"/>
       <x:c r="L104" s="1"/>
       <x:c r="M104" s="1"/>
       <x:c r="N104" s="1"/>
@@ -7228,20 +4999,20 @@
       <x:c r="A105" s="7"/>
       <x:c r="B105" s="1"/>
       <x:c r="C105" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D105" s="1"/>
       <x:c r="E105" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F105" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G105" s="49"/>
-      <x:c r="H105" s="49"/>
+      <x:c r="G105" s="45"/>
+      <x:c r="H105" s="45"/>
       <x:c r="I105" s="1"/>
-      <x:c r="J105" s="43"/>
-      <x:c r="K105" s="44"/>
+      <x:c r="J105" s="39"/>
+      <x:c r="K105" s="40"/>
       <x:c r="L105" s="1"/>
       <x:c r="M105" s="1"/>
       <x:c r="N105" s="1"/>
@@ -7263,20 +5034,20 @@
       <x:c r="A106" s="7"/>
       <x:c r="B106" s="1"/>
       <x:c r="C106" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D106" s="1"/>
       <x:c r="E106" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F106" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G106" s="49"/>
-      <x:c r="H106" s="49"/>
+      <x:c r="G106" s="45"/>
+      <x:c r="H106" s="45"/>
       <x:c r="I106" s="1"/>
-      <x:c r="J106" s="43"/>
-      <x:c r="K106" s="44"/>
+      <x:c r="J106" s="39"/>
+      <x:c r="K106" s="40"/>
       <x:c r="L106" s="1"/>
       <x:c r="M106" s="1"/>
       <x:c r="N106" s="1"/>
@@ -7298,20 +5069,20 @@
       <x:c r="A107" s="7"/>
       <x:c r="B107" s="1"/>
       <x:c r="C107" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D107" s="1"/>
       <x:c r="E107" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F107" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G107" s="49"/>
-      <x:c r="H107" s="49"/>
+      <x:c r="G107" s="45"/>
+      <x:c r="H107" s="45"/>
       <x:c r="I107" s="1"/>
-      <x:c r="J107" s="43"/>
-      <x:c r="K107" s="44"/>
+      <x:c r="J107" s="39"/>
+      <x:c r="K107" s="40"/>
       <x:c r="L107" s="1"/>
       <x:c r="M107" s="1"/>
       <x:c r="N107" s="1"/>
@@ -7333,20 +5104,20 @@
       <x:c r="A108" s="7"/>
       <x:c r="B108" s="1"/>
       <x:c r="C108" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D108" s="1"/>
       <x:c r="E108" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F108" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G108" s="49"/>
-      <x:c r="H108" s="49"/>
+      <x:c r="G108" s="45"/>
+      <x:c r="H108" s="45"/>
       <x:c r="I108" s="1"/>
-      <x:c r="J108" s="43"/>
-      <x:c r="K108" s="44"/>
+      <x:c r="J108" s="39"/>
+      <x:c r="K108" s="40"/>
       <x:c r="L108" s="1"/>
       <x:c r="M108" s="1"/>
       <x:c r="N108" s="1"/>
@@ -7368,20 +5139,20 @@
       <x:c r="A109" s="7"/>
       <x:c r="B109" s="1"/>
       <x:c r="C109" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D109" s="1"/>
       <x:c r="E109" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F109" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G109" s="49"/>
-      <x:c r="H109" s="49"/>
+      <x:c r="G109" s="45"/>
+      <x:c r="H109" s="45"/>
       <x:c r="I109" s="1"/>
-      <x:c r="J109" s="43"/>
-      <x:c r="K109" s="44"/>
+      <x:c r="J109" s="39"/>
+      <x:c r="K109" s="40"/>
       <x:c r="L109" s="1"/>
       <x:c r="M109" s="1"/>
       <x:c r="N109" s="1"/>
@@ -7403,20 +5174,20 @@
       <x:c r="A110" s="7"/>
       <x:c r="B110" s="1"/>
       <x:c r="C110" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D110" s="1"/>
       <x:c r="E110" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F110" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G110" s="49"/>
-      <x:c r="H110" s="49"/>
+      <x:c r="G110" s="45"/>
+      <x:c r="H110" s="45"/>
       <x:c r="I110" s="1"/>
-      <x:c r="J110" s="43"/>
-      <x:c r="K110" s="44"/>
+      <x:c r="J110" s="39"/>
+      <x:c r="K110" s="40"/>
       <x:c r="L110" s="1"/>
       <x:c r="M110" s="1"/>
       <x:c r="N110" s="1"/>
@@ -7438,20 +5209,20 @@
       <x:c r="A111" s="7"/>
       <x:c r="B111" s="1"/>
       <x:c r="C111" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D111" s="1"/>
       <x:c r="E111" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F111" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G111" s="49"/>
-      <x:c r="H111" s="49"/>
+      <x:c r="G111" s="45"/>
+      <x:c r="H111" s="45"/>
       <x:c r="I111" s="1"/>
-      <x:c r="J111" s="43"/>
-      <x:c r="K111" s="44"/>
+      <x:c r="J111" s="39"/>
+      <x:c r="K111" s="40"/>
       <x:c r="L111" s="1"/>
       <x:c r="M111" s="1"/>
       <x:c r="N111" s="1"/>
@@ -7473,20 +5244,20 @@
       <x:c r="A112" s="7"/>
       <x:c r="B112" s="1"/>
       <x:c r="C112" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D112" s="1"/>
       <x:c r="E112" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F112" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G112" s="49"/>
-      <x:c r="H112" s="49"/>
+      <x:c r="G112" s="45"/>
+      <x:c r="H112" s="45"/>
       <x:c r="I112" s="1"/>
-      <x:c r="J112" s="43"/>
-      <x:c r="K112" s="44"/>
+      <x:c r="J112" s="39"/>
+      <x:c r="K112" s="40"/>
       <x:c r="L112" s="1"/>
       <x:c r="M112" s="1"/>
       <x:c r="N112" s="1"/>
@@ -7508,20 +5279,20 @@
       <x:c r="A113" s="7"/>
       <x:c r="B113" s="1"/>
       <x:c r="C113" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D113" s="1"/>
       <x:c r="E113" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F113" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G113" s="49"/>
-      <x:c r="H113" s="49"/>
+      <x:c r="G113" s="45"/>
+      <x:c r="H113" s="45"/>
       <x:c r="I113" s="1"/>
-      <x:c r="J113" s="43"/>
-      <x:c r="K113" s="44"/>
+      <x:c r="J113" s="39"/>
+      <x:c r="K113" s="40"/>
       <x:c r="L113" s="1"/>
       <x:c r="M113" s="1"/>
       <x:c r="N113" s="1"/>
@@ -7543,20 +5314,20 @@
       <x:c r="A114" s="7"/>
       <x:c r="B114" s="1"/>
       <x:c r="C114" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D114" s="1"/>
       <x:c r="E114" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F114" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G114" s="49"/>
-      <x:c r="H114" s="49"/>
+      <x:c r="G114" s="45"/>
+      <x:c r="H114" s="45"/>
       <x:c r="I114" s="1"/>
-      <x:c r="J114" s="43"/>
-      <x:c r="K114" s="44"/>
+      <x:c r="J114" s="39"/>
+      <x:c r="K114" s="40"/>
       <x:c r="L114" s="1"/>
       <x:c r="M114" s="1"/>
       <x:c r="N114" s="1"/>
@@ -7578,20 +5349,20 @@
       <x:c r="A115" s="7"/>
       <x:c r="B115" s="1"/>
       <x:c r="C115" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D115" s="1"/>
       <x:c r="E115" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F115" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G115" s="49"/>
-      <x:c r="H115" s="49"/>
+      <x:c r="G115" s="45"/>
+      <x:c r="H115" s="45"/>
       <x:c r="I115" s="1"/>
-      <x:c r="J115" s="43"/>
-      <x:c r="K115" s="44"/>
+      <x:c r="J115" s="39"/>
+      <x:c r="K115" s="40"/>
       <x:c r="L115" s="1"/>
       <x:c r="M115" s="1"/>
       <x:c r="N115" s="1"/>
@@ -7613,20 +5384,20 @@
       <x:c r="A116" s="7"/>
       <x:c r="B116" s="1"/>
       <x:c r="C116" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D116" s="1"/>
       <x:c r="E116" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F116" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G116" s="49"/>
-      <x:c r="H116" s="49"/>
+      <x:c r="G116" s="45"/>
+      <x:c r="H116" s="45"/>
       <x:c r="I116" s="1"/>
-      <x:c r="J116" s="43"/>
-      <x:c r="K116" s="44"/>
+      <x:c r="J116" s="39"/>
+      <x:c r="K116" s="40"/>
       <x:c r="L116" s="1"/>
       <x:c r="M116" s="1"/>
       <x:c r="N116" s="1"/>
@@ -7648,20 +5419,20 @@
       <x:c r="A117" s="7"/>
       <x:c r="B117" s="1"/>
       <x:c r="C117" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D117" s="1"/>
       <x:c r="E117" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F117" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G117" s="49"/>
-      <x:c r="H117" s="49"/>
+      <x:c r="G117" s="45"/>
+      <x:c r="H117" s="45"/>
       <x:c r="I117" s="1"/>
-      <x:c r="J117" s="43"/>
-      <x:c r="K117" s="44"/>
+      <x:c r="J117" s="39"/>
+      <x:c r="K117" s="40"/>
       <x:c r="L117" s="1"/>
       <x:c r="M117" s="1"/>
       <x:c r="N117" s="1"/>
@@ -7683,20 +5454,20 @@
       <x:c r="A118" s="7"/>
       <x:c r="B118" s="1"/>
       <x:c r="C118" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D118" s="1"/>
       <x:c r="E118" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F118" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G118" s="49"/>
-      <x:c r="H118" s="49"/>
+      <x:c r="G118" s="45"/>
+      <x:c r="H118" s="45"/>
       <x:c r="I118" s="1"/>
-      <x:c r="J118" s="43"/>
-      <x:c r="K118" s="44"/>
+      <x:c r="J118" s="39"/>
+      <x:c r="K118" s="40"/>
       <x:c r="L118" s="1"/>
       <x:c r="M118" s="1"/>
       <x:c r="N118" s="1"/>
@@ -7718,20 +5489,20 @@
       <x:c r="A119" s="7"/>
       <x:c r="B119" s="1"/>
       <x:c r="C119" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D119" s="1"/>
       <x:c r="E119" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F119" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G119" s="49"/>
-      <x:c r="H119" s="49"/>
+      <x:c r="G119" s="45"/>
+      <x:c r="H119" s="45"/>
       <x:c r="I119" s="1"/>
-      <x:c r="J119" s="43"/>
-      <x:c r="K119" s="44"/>
+      <x:c r="J119" s="39"/>
+      <x:c r="K119" s="40"/>
       <x:c r="L119" s="1"/>
       <x:c r="M119" s="1"/>
       <x:c r="N119" s="1"/>
@@ -7752,16 +5523,16 @@
     <x:row r="120" spans="1:27" ht="13.19999999999999928946">
       <x:c r="A120" s="7"/>
       <x:c r="B120" s="10" t="s">
-        <x:v>154</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C120" s="10"/>
       <x:c r="D120" s="10"/>
       <x:c r="E120" s="10"/>
       <x:c r="F120" s="10"/>
-      <x:c r="G120" s="45"/>
-      <x:c r="H120" s="45"/>
+      <x:c r="G120" s="41"/>
+      <x:c r="H120" s="41"/>
       <x:c r="I120" s="10"/>
-      <x:c r="K120" s="44"/>
+      <x:c r="K120" s="40"/>
       <x:c r="L120" s="1"/>
       <x:c r="M120" s="1"/>
       <x:c r="N120" s="1"/>
@@ -7780,23 +5551,23 @@
       <x:c r="AA120" s="1"/>
     </x:row>
     <x:row r="121" spans="1:27" s="31" customFormat="1" ht="13.19999999999999928946">
-      <x:c r="A121" s="50"/>
+      <x:c r="A121" s="46"/>
       <x:c r="B121" s="27"/>
       <x:c r="C121" s="27" t="s">
-        <x:v>160</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D121" s="27"/>
       <x:c r="E121" s="27" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F121" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G121" s="51"/>
-      <x:c r="H121" s="51"/>
+      <x:c r="G121" s="47"/>
+      <x:c r="H121" s="47"/>
       <x:c r="I121" s="27"/>
-      <x:c r="J121" s="52"/>
-      <x:c r="K121" s="44"/>
+      <x:c r="J121" s="48"/>
+      <x:c r="K121" s="40"/>
       <x:c r="L121" s="1"/>
       <x:c r="M121" s="1"/>
       <x:c r="N121" s="1"/>
@@ -7815,23 +5586,23 @@
       <x:c r="AA121" s="1"/>
     </x:row>
     <x:row r="122" spans="1:27" s="31" customFormat="1" ht="13.19999999999999928946">
-      <x:c r="A122" s="50"/>
+      <x:c r="A122" s="46"/>
       <x:c r="B122" s="27"/>
       <x:c r="C122" s="31" t="s">
-        <x:v>134</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D122" s="27"/>
       <x:c r="E122" s="27" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F122" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G122" s="51"/>
-      <x:c r="H122" s="51"/>
+      <x:c r="G122" s="47"/>
+      <x:c r="H122" s="47"/>
       <x:c r="I122" s="27"/>
-      <x:c r="J122" s="52"/>
-      <x:c r="K122" s="44"/>
+      <x:c r="J122" s="48"/>
+      <x:c r="K122" s="40"/>
       <x:c r="L122" s="1"/>
       <x:c r="M122" s="1"/>
       <x:c r="N122" s="1"/>
@@ -7850,23 +5621,23 @@
       <x:c r="AA122" s="1"/>
     </x:row>
     <x:row r="123" spans="1:27" s="31" customFormat="1" ht="13.19999999999999928946">
-      <x:c r="A123" s="50"/>
+      <x:c r="A123" s="46"/>
       <x:c r="B123" s="27"/>
       <x:c r="C123" s="27" t="s">
-        <x:v>121</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D123" s="27"/>
       <x:c r="E123" s="27" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F123" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G123" s="51"/>
-      <x:c r="H123" s="51"/>
+      <x:c r="G123" s="47"/>
+      <x:c r="H123" s="47"/>
       <x:c r="I123" s="27"/>
-      <x:c r="J123" s="52"/>
-      <x:c r="K123" s="44"/>
+      <x:c r="J123" s="48"/>
+      <x:c r="K123" s="40"/>
       <x:c r="L123" s="1"/>
       <x:c r="M123" s="1"/>
       <x:c r="N123" s="1"/>
@@ -7885,23 +5656,23 @@
       <x:c r="AA123" s="1"/>
     </x:row>
     <x:row r="124" spans="1:27" s="31" customFormat="1" ht="13.19999999999999928946">
-      <x:c r="A124" s="50"/>
+      <x:c r="A124" s="46"/>
       <x:c r="B124" s="27"/>
       <x:c r="C124" s="27" t="s">
-        <x:v>0</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D124" s="27"/>
       <x:c r="E124" s="27" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F124" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G124" s="51"/>
-      <x:c r="H124" s="51"/>
+      <x:c r="G124" s="47"/>
+      <x:c r="H124" s="47"/>
       <x:c r="I124" s="27"/>
-      <x:c r="J124" s="52"/>
-      <x:c r="K124" s="44"/>
+      <x:c r="J124" s="48"/>
+      <x:c r="K124" s="40"/>
       <x:c r="L124" s="1"/>
       <x:c r="M124" s="1"/>
       <x:c r="N124" s="1"/>
@@ -7920,23 +5691,23 @@
       <x:c r="AA124" s="1"/>
     </x:row>
     <x:row r="125" spans="1:27" s="31" customFormat="1" ht="13.19999999999999928946">
-      <x:c r="A125" s="50"/>
+      <x:c r="A125" s="46"/>
       <x:c r="B125" s="27"/>
       <x:c r="C125" s="27" t="s">
-        <x:v>176</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D125" s="27"/>
       <x:c r="E125" s="27" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F125" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G125" s="51"/>
-      <x:c r="H125" s="51"/>
+      <x:c r="G125" s="47"/>
+      <x:c r="H125" s="47"/>
       <x:c r="I125" s="27"/>
-      <x:c r="J125" s="52"/>
-      <x:c r="K125" s="44"/>
+      <x:c r="J125" s="48"/>
+      <x:c r="K125" s="40"/>
       <x:c r="L125" s="1"/>
       <x:c r="M125" s="1"/>
       <x:c r="N125" s="1"/>
@@ -7955,23 +5726,23 @@
       <x:c r="AA125" s="1"/>
     </x:row>
     <x:row r="126" spans="1:27" s="31" customFormat="1" ht="13.19999999999999928946">
-      <x:c r="A126" s="50"/>
+      <x:c r="A126" s="46"/>
       <x:c r="B126" s="27"/>
       <x:c r="C126" s="27" t="s">
-        <x:v>113</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D126" s="27"/>
       <x:c r="E126" s="27" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F126" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G126" s="51"/>
-      <x:c r="H126" s="51"/>
+      <x:c r="G126" s="47"/>
+      <x:c r="H126" s="47"/>
       <x:c r="I126" s="27"/>
-      <x:c r="J126" s="52"/>
-      <x:c r="K126" s="44"/>
+      <x:c r="J126" s="48"/>
+      <x:c r="K126" s="40"/>
       <x:c r="L126" s="1"/>
       <x:c r="M126" s="1"/>
       <x:c r="N126" s="1"/>
@@ -7990,23 +5761,23 @@
       <x:c r="AA126" s="1"/>
     </x:row>
     <x:row r="127" spans="1:27" s="31" customFormat="1" ht="13.19999999999999928946">
-      <x:c r="A127" s="50"/>
+      <x:c r="A127" s="46"/>
       <x:c r="B127" s="27"/>
       <x:c r="C127" s="27" t="s">
-        <x:v>2</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D127" s="27"/>
       <x:c r="E127" s="27" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F127" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G127" s="51"/>
-      <x:c r="H127" s="51"/>
+      <x:c r="G127" s="47"/>
+      <x:c r="H127" s="47"/>
       <x:c r="I127" s="27"/>
-      <x:c r="J127" s="52"/>
-      <x:c r="K127" s="44"/>
+      <x:c r="J127" s="48"/>
+      <x:c r="K127" s="40"/>
       <x:c r="L127" s="1"/>
       <x:c r="M127" s="1"/>
       <x:c r="N127" s="1"/>
@@ -8025,23 +5796,23 @@
       <x:c r="AA127" s="1"/>
     </x:row>
     <x:row r="128" spans="1:27" s="31" customFormat="1" ht="13.19999999999999928946">
-      <x:c r="A128" s="50"/>
+      <x:c r="A128" s="46"/>
       <x:c r="B128" s="27"/>
       <x:c r="C128" s="27" t="s">
-        <x:v>130</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D128" s="27"/>
       <x:c r="E128" s="27" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F128" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G128" s="51"/>
-      <x:c r="H128" s="51"/>
+      <x:c r="G128" s="47"/>
+      <x:c r="H128" s="47"/>
       <x:c r="I128" s="27"/>
-      <x:c r="J128" s="52"/>
-      <x:c r="K128" s="44"/>
+      <x:c r="J128" s="48"/>
+      <x:c r="K128" s="40"/>
       <x:c r="L128" s="1"/>
       <x:c r="M128" s="1"/>
       <x:c r="N128" s="1"/>
@@ -8060,23 +5831,23 @@
       <x:c r="AA128" s="1"/>
     </x:row>
     <x:row r="129" spans="1:27" s="31" customFormat="1" ht="13.19999999999999928946">
-      <x:c r="A129" s="50"/>
+      <x:c r="A129" s="46"/>
       <x:c r="B129" s="27"/>
       <x:c r="C129" s="27" t="s">
-        <x:v>177</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D129" s="27"/>
       <x:c r="E129" s="27" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F129" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G129" s="51"/>
-      <x:c r="H129" s="51"/>
+      <x:c r="G129" s="47"/>
+      <x:c r="H129" s="47"/>
       <x:c r="I129" s="27"/>
-      <x:c r="J129" s="52"/>
-      <x:c r="K129" s="44"/>
+      <x:c r="J129" s="48"/>
+      <x:c r="K129" s="40"/>
       <x:c r="L129" s="1"/>
       <x:c r="M129" s="1"/>
       <x:c r="N129" s="1"/>
@@ -8095,23 +5866,23 @@
       <x:c r="AA129" s="1"/>
     </x:row>
     <x:row r="130" spans="1:27" s="31" customFormat="1" ht="13.19999999999999928946">
-      <x:c r="A130" s="50"/>
+      <x:c r="A130" s="46"/>
       <x:c r="B130" s="27"/>
       <x:c r="C130" s="27" t="s">
-        <x:v>1</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D130" s="27"/>
       <x:c r="E130" s="27" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F130" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G130" s="51"/>
-      <x:c r="H130" s="51"/>
+      <x:c r="G130" s="47"/>
+      <x:c r="H130" s="47"/>
       <x:c r="I130" s="27"/>
-      <x:c r="J130" s="52"/>
-      <x:c r="K130" s="44"/>
+      <x:c r="J130" s="48"/>
+      <x:c r="K130" s="40"/>
       <x:c r="L130" s="1"/>
       <x:c r="M130" s="1"/>
       <x:c r="N130" s="1"/>
@@ -8130,23 +5901,23 @@
       <x:c r="AA130" s="1"/>
     </x:row>
     <x:row r="131" spans="1:27" s="31" customFormat="1" ht="13.19999999999999928946">
-      <x:c r="A131" s="50"/>
+      <x:c r="A131" s="46"/>
       <x:c r="B131" s="27"/>
       <x:c r="C131" s="27" t="s">
-        <x:v>112</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D131" s="27"/>
       <x:c r="E131" s="27" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F131" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G131" s="51"/>
-      <x:c r="H131" s="51"/>
+      <x:c r="G131" s="47"/>
+      <x:c r="H131" s="47"/>
       <x:c r="I131" s="27"/>
-      <x:c r="J131" s="52"/>
-      <x:c r="K131" s="44"/>
+      <x:c r="J131" s="48"/>
+      <x:c r="K131" s="40"/>
       <x:c r="L131" s="1"/>
       <x:c r="M131" s="1"/>
       <x:c r="N131" s="1"/>
@@ -8165,23 +5936,23 @@
       <x:c r="AA131" s="1"/>
     </x:row>
     <x:row r="132" spans="1:27" s="31" customFormat="1" ht="13.19999999999999928946">
-      <x:c r="A132" s="50"/>
+      <x:c r="A132" s="46"/>
       <x:c r="B132" s="27"/>
-      <x:c r="C132" s="57" t="s">
-        <x:v>129</x:v>
+      <x:c r="C132" s="53" t="s">
+        <x:v>177</x:v>
       </x:c>
       <x:c r="D132" s="27"/>
       <x:c r="E132" s="27" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F132" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G132" s="51"/>
-      <x:c r="H132" s="51"/>
+      <x:c r="G132" s="47"/>
+      <x:c r="H132" s="47"/>
       <x:c r="I132" s="27"/>
-      <x:c r="J132" s="52"/>
-      <x:c r="K132" s="44"/>
+      <x:c r="J132" s="48"/>
+      <x:c r="K132" s="40"/>
       <x:c r="L132" s="1"/>
       <x:c r="M132" s="1"/>
       <x:c r="N132" s="1"/>
@@ -8200,23 +5971,21 @@
       <x:c r="AA132" s="1"/>
     </x:row>
     <x:row r="133" spans="1:27" s="31" customFormat="1" ht="13.19999999999999928946">
-      <x:c r="A133" s="50"/>
+      <x:c r="A133" s="46"/>
       <x:c r="B133" s="27"/>
-      <x:c r="C133" s="27" t="s">
-        <x:v>94</x:v>
+      <x:c r="C133" s="53" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D133" s="27"/>
       <x:c r="E133" s="27" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="F133" s="29">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G133" s="51"/>
-      <x:c r="H133" s="51"/>
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F133" s="29"/>
+      <x:c r="G133" s="47"/>
+      <x:c r="H133" s="47"/>
       <x:c r="I133" s="27"/>
-      <x:c r="J133" s="52"/>
-      <x:c r="K133" s="44"/>
+      <x:c r="J133" s="48"/>
+      <x:c r="K133" s="40"/>
       <x:c r="L133" s="1"/>
       <x:c r="M133" s="1"/>
       <x:c r="N133" s="1"/>
@@ -8234,23 +6003,24 @@
       <x:c r="Z133" s="1"/>
       <x:c r="AA133" s="1"/>
     </x:row>
-    <x:row r="134" spans="1:27" ht="13.19999999999999928946">
-      <x:c r="A134" s="7"/>
+    <x:row r="134" spans="1:27" s="31" customFormat="1" ht="13.19999999999999928946">
+      <x:c r="A134" s="46"/>
       <x:c r="B134" s="27"/>
-      <x:c r="C134" s="31" t="s">
-        <x:v>133</x:v>
+      <x:c r="C134" s="27" t="s">
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D134" s="27"/>
       <x:c r="E134" s="27" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F134" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G134" s="51"/>
-      <x:c r="H134" s="51"/>
+      <x:c r="G134" s="47"/>
+      <x:c r="H134" s="47"/>
       <x:c r="I134" s="27"/>
-      <x:c r="K134" s="44"/>
+      <x:c r="J134" s="48"/>
+      <x:c r="K134" s="40"/>
       <x:c r="L134" s="1"/>
       <x:c r="M134" s="1"/>
       <x:c r="N134" s="1"/>
@@ -8270,17 +6040,21 @@
     </x:row>
     <x:row r="135" spans="1:27" ht="13.19999999999999928946">
       <x:c r="A135" s="7"/>
-      <x:c r="B135" s="10" t="s">
-        <x:v>155</x:v>
-      </x:c>
-      <x:c r="C135" s="10"/>
-      <x:c r="D135" s="10"/>
-      <x:c r="E135" s="10"/>
-      <x:c r="F135" s="10"/>
-      <x:c r="G135" s="45"/>
-      <x:c r="H135" s="45"/>
-      <x:c r="I135" s="10"/>
-      <x:c r="K135" s="44"/>
+      <x:c r="B135" s="27"/>
+      <x:c r="C135" s="31" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="D135" s="27"/>
+      <x:c r="E135" s="27" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F135" s="29">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G135" s="47"/>
+      <x:c r="H135" s="47"/>
+      <x:c r="I135" s="27"/>
+      <x:c r="K135" s="40"/>
       <x:c r="L135" s="1"/>
       <x:c r="M135" s="1"/>
       <x:c r="N135" s="1"/>
@@ -8300,21 +6074,17 @@
     </x:row>
     <x:row r="136" spans="1:27" ht="13.19999999999999928946">
       <x:c r="A136" s="7"/>
-      <x:c r="B136" s="27"/>
-      <x:c r="C136" s="1" t="s">
-        <x:v>156</x:v>
-      </x:c>
-      <x:c r="D136" s="27"/>
-      <x:c r="E136" s="1" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="F136" s="29">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G136" s="51"/>
-      <x:c r="H136" s="51"/>
-      <x:c r="I136" s="27"/>
-      <x:c r="K136" s="44"/>
+      <x:c r="B136" s="10" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C136" s="10"/>
+      <x:c r="D136" s="10"/>
+      <x:c r="E136" s="10"/>
+      <x:c r="F136" s="10"/>
+      <x:c r="G136" s="41"/>
+      <x:c r="H136" s="41"/>
+      <x:c r="I136" s="10"/>
+      <x:c r="K136" s="40"/>
       <x:c r="L136" s="1"/>
       <x:c r="M136" s="1"/>
       <x:c r="N136" s="1"/>
@@ -8336,19 +6106,19 @@
       <x:c r="A137" s="7"/>
       <x:c r="B137" s="27"/>
       <x:c r="C137" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D137" s="27"/>
       <x:c r="E137" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F137" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G137" s="51"/>
-      <x:c r="H137" s="51"/>
+      <x:c r="G137" s="47"/>
+      <x:c r="H137" s="47"/>
       <x:c r="I137" s="27"/>
-      <x:c r="K137" s="44"/>
+      <x:c r="K137" s="40"/>
       <x:c r="L137" s="1"/>
       <x:c r="M137" s="1"/>
       <x:c r="N137" s="1"/>
@@ -8370,19 +6140,19 @@
       <x:c r="A138" s="7"/>
       <x:c r="B138" s="27"/>
       <x:c r="C138" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D138" s="27"/>
       <x:c r="E138" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F138" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G138" s="51"/>
-      <x:c r="H138" s="51"/>
+      <x:c r="G138" s="47"/>
+      <x:c r="H138" s="47"/>
       <x:c r="I138" s="27"/>
-      <x:c r="K138" s="44"/>
+      <x:c r="K138" s="40"/>
       <x:c r="L138" s="1"/>
       <x:c r="M138" s="1"/>
       <x:c r="N138" s="1"/>
@@ -8404,19 +6174,19 @@
       <x:c r="A139" s="7"/>
       <x:c r="B139" s="27"/>
       <x:c r="C139" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D139" s="27"/>
       <x:c r="E139" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F139" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G139" s="51"/>
-      <x:c r="H139" s="51"/>
+      <x:c r="G139" s="47"/>
+      <x:c r="H139" s="47"/>
       <x:c r="I139" s="27"/>
-      <x:c r="K139" s="44"/>
+      <x:c r="K139" s="40"/>
       <x:c r="L139" s="1"/>
       <x:c r="M139" s="1"/>
       <x:c r="N139" s="1"/>
@@ -8438,19 +6208,19 @@
       <x:c r="A140" s="7"/>
       <x:c r="B140" s="27"/>
       <x:c r="C140" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D140" s="27"/>
       <x:c r="E140" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F140" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G140" s="51"/>
-      <x:c r="H140" s="51"/>
+      <x:c r="G140" s="47"/>
+      <x:c r="H140" s="47"/>
       <x:c r="I140" s="27"/>
-      <x:c r="K140" s="44"/>
+      <x:c r="K140" s="40"/>
       <x:c r="L140" s="1"/>
       <x:c r="M140" s="1"/>
       <x:c r="N140" s="1"/>
@@ -8472,20 +6242,19 @@
       <x:c r="A141" s="7"/>
       <x:c r="B141" s="27"/>
       <x:c r="C141" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D141" s="27"/>
       <x:c r="E141" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F141" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G141" s="51"/>
-      <x:c r="H141" s="51"/>
+      <x:c r="G141" s="47"/>
+      <x:c r="H141" s="47"/>
       <x:c r="I141" s="27"/>
-      <x:c r="J141" s="43"/>
-      <x:c r="K141" s="44"/>
+      <x:c r="K141" s="40"/>
       <x:c r="L141" s="1"/>
       <x:c r="M141" s="1"/>
       <x:c r="N141" s="1"/>
@@ -8507,20 +6276,20 @@
       <x:c r="A142" s="7"/>
       <x:c r="B142" s="27"/>
       <x:c r="C142" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D142" s="27"/>
       <x:c r="E142" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F142" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G142" s="51"/>
-      <x:c r="H142" s="51"/>
+      <x:c r="G142" s="47"/>
+      <x:c r="H142" s="47"/>
       <x:c r="I142" s="27"/>
-      <x:c r="J142" s="43"/>
-      <x:c r="K142" s="44"/>
+      <x:c r="J142" s="39"/>
+      <x:c r="K142" s="40"/>
       <x:c r="L142" s="1"/>
       <x:c r="M142" s="1"/>
       <x:c r="N142" s="1"/>
@@ -8542,20 +6311,20 @@
       <x:c r="A143" s="7"/>
       <x:c r="B143" s="27"/>
       <x:c r="C143" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D143" s="27"/>
       <x:c r="E143" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F143" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G143" s="51"/>
-      <x:c r="H143" s="51"/>
+      <x:c r="G143" s="47"/>
+      <x:c r="H143" s="47"/>
       <x:c r="I143" s="27"/>
-      <x:c r="J143" s="43"/>
-      <x:c r="K143" s="44"/>
+      <x:c r="J143" s="39"/>
+      <x:c r="K143" s="40"/>
       <x:c r="L143" s="1"/>
       <x:c r="M143" s="1"/>
       <x:c r="N143" s="1"/>
@@ -8574,24 +6343,23 @@
       <x:c r="AA143" s="1"/>
     </x:row>
     <x:row r="144" spans="1:27" ht="13.19999999999999928946">
-      <x:c r="A144" s="7" t="s">
-        <x:v>6</x:v>
-      </x:c>
+      <x:c r="A144" s="7"/>
+      <x:c r="B144" s="27"/>
       <x:c r="C144" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D144" s="27"/>
       <x:c r="E144" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F144" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G144" s="51"/>
-      <x:c r="H144" s="51"/>
+      <x:c r="G144" s="47"/>
+      <x:c r="H144" s="47"/>
       <x:c r="I144" s="27"/>
-      <x:c r="J144" s="43"/>
-      <x:c r="K144" s="44"/>
+      <x:c r="J144" s="39"/>
+      <x:c r="K144" s="40"/>
       <x:c r="L144" s="1"/>
       <x:c r="M144" s="1"/>
       <x:c r="N144" s="1"/>
@@ -8610,22 +6378,24 @@
       <x:c r="AA144" s="1"/>
     </x:row>
     <x:row r="145" spans="1:27" ht="13.19999999999999928946">
-      <x:c r="A145" s="7"/>
+      <x:c r="A145" s="7" t="s">
+        <x:v>149</x:v>
+      </x:c>
       <x:c r="C145" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D145" s="27"/>
       <x:c r="E145" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F145" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G145" s="51"/>
-      <x:c r="H145" s="51"/>
+      <x:c r="G145" s="47"/>
+      <x:c r="H145" s="47"/>
       <x:c r="I145" s="27"/>
-      <x:c r="J145" s="43"/>
-      <x:c r="K145" s="44"/>
+      <x:c r="J145" s="39"/>
+      <x:c r="K145" s="40"/>
       <x:c r="L145" s="1"/>
       <x:c r="M145" s="1"/>
       <x:c r="N145" s="1"/>
@@ -8644,20 +6414,22 @@
       <x:c r="AA145" s="1"/>
     </x:row>
     <x:row r="146" spans="1:27" ht="13.19999999999999928946">
-      <x:c r="A146" s="13" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="B146" s="14" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="C146" s="14"/>
-      <x:c r="D146" s="14"/>
-      <x:c r="E146" s="14"/>
-      <x:c r="F146" s="14"/>
-      <x:c r="G146" s="53"/>
-      <x:c r="H146" s="53"/>
-      <x:c r="I146" s="14"/>
-      <x:c r="K146" s="44"/>
+      <x:c r="A146" s="7"/>
+      <x:c r="C146" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D146" s="27"/>
+      <x:c r="E146" s="1" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F146" s="29">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G146" s="47"/>
+      <x:c r="H146" s="47"/>
+      <x:c r="I146" s="27"/>
+      <x:c r="J146" s="39"/>
+      <x:c r="K146" s="40"/>
       <x:c r="L146" s="1"/>
       <x:c r="M146" s="1"/>
       <x:c r="N146" s="1"/>
@@ -8676,22 +6448,20 @@
       <x:c r="AA146" s="1"/>
     </x:row>
     <x:row r="147" spans="1:27" ht="13.19999999999999928946">
-      <x:c r="A147" s="21"/>
-      <x:c r="B147" s="16"/>
-      <x:c r="C147" s="16" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D147" s="16"/>
-      <x:c r="E147" s="1" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="F147" s="29">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G147" s="54"/>
-      <x:c r="H147" s="54"/>
-      <x:c r="I147" s="16"/>
-      <x:c r="K147" s="44"/>
+      <x:c r="A147" s="13" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="B147" s="14" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C147" s="14"/>
+      <x:c r="D147" s="14"/>
+      <x:c r="E147" s="14"/>
+      <x:c r="F147" s="14"/>
+      <x:c r="G147" s="49"/>
+      <x:c r="H147" s="49"/>
+      <x:c r="I147" s="14"/>
+      <x:c r="K147" s="40"/>
       <x:c r="L147" s="1"/>
       <x:c r="M147" s="1"/>
       <x:c r="N147" s="1"/>
@@ -8711,17 +6481,21 @@
     </x:row>
     <x:row r="148" spans="1:27" ht="13.19999999999999928946">
       <x:c r="A148" s="21"/>
-      <x:c r="B148" s="17" t="s">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="C148" s="17"/>
-      <x:c r="D148" s="17"/>
-      <x:c r="E148" s="17"/>
-      <x:c r="F148" s="17"/>
-      <x:c r="G148" s="55"/>
-      <x:c r="H148" s="55"/>
-      <x:c r="I148" s="17"/>
-      <x:c r="K148" s="44"/>
+      <x:c r="B148" s="16"/>
+      <x:c r="C148" s="16" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D148" s="16"/>
+      <x:c r="E148" s="1" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F148" s="29">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G148" s="50"/>
+      <x:c r="H148" s="50"/>
+      <x:c r="I148" s="16"/>
+      <x:c r="K148" s="40"/>
       <x:c r="L148" s="1"/>
       <x:c r="M148" s="1"/>
       <x:c r="N148" s="1"/>
@@ -8741,21 +6515,17 @@
     </x:row>
     <x:row r="149" spans="1:27" ht="13.19999999999999928946">
       <x:c r="A149" s="21"/>
-      <x:c r="B149" s="16"/>
-      <x:c r="C149" s="16" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D149" s="16"/>
-      <x:c r="E149" s="1" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="F149" s="29">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G149" s="54"/>
-      <x:c r="H149" s="54"/>
-      <x:c r="I149" s="16"/>
-      <x:c r="K149" s="44"/>
+      <x:c r="B149" s="17" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C149" s="17"/>
+      <x:c r="D149" s="17"/>
+      <x:c r="E149" s="17"/>
+      <x:c r="F149" s="17"/>
+      <x:c r="G149" s="51"/>
+      <x:c r="H149" s="51"/>
+      <x:c r="I149" s="17"/>
+      <x:c r="K149" s="40"/>
       <x:c r="L149" s="1"/>
       <x:c r="M149" s="1"/>
       <x:c r="N149" s="1"/>
@@ -8777,19 +6547,19 @@
       <x:c r="A150" s="21"/>
       <x:c r="B150" s="16"/>
       <x:c r="C150" s="16" t="s">
-        <x:v>51</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D150" s="16"/>
       <x:c r="E150" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F150" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G150" s="54"/>
-      <x:c r="H150" s="54"/>
+      <x:c r="G150" s="50"/>
+      <x:c r="H150" s="50"/>
       <x:c r="I150" s="16"/>
-      <x:c r="K150" s="44"/>
+      <x:c r="K150" s="40"/>
       <x:c r="L150" s="1"/>
       <x:c r="M150" s="1"/>
       <x:c r="N150" s="1"/>
@@ -8808,20 +6578,22 @@
       <x:c r="AA150" s="1"/>
     </x:row>
     <x:row r="151" spans="1:27" ht="13.19999999999999928946">
-      <x:c r="A151" s="13" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="B151" s="14" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C151" s="14"/>
-      <x:c r="D151" s="14"/>
-      <x:c r="E151" s="14"/>
-      <x:c r="F151" s="14"/>
-      <x:c r="G151" s="53"/>
-      <x:c r="H151" s="53"/>
-      <x:c r="I151" s="14"/>
-      <x:c r="K151" s="44"/>
+      <x:c r="A151" s="21"/>
+      <x:c r="B151" s="16"/>
+      <x:c r="C151" s="16" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D151" s="16"/>
+      <x:c r="E151" s="1" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F151" s="29">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G151" s="50"/>
+      <x:c r="H151" s="50"/>
+      <x:c r="I151" s="16"/>
+      <x:c r="K151" s="40"/>
       <x:c r="L151" s="1"/>
       <x:c r="M151" s="1"/>
       <x:c r="N151" s="1"/>
@@ -8840,22 +6612,20 @@
       <x:c r="AA151" s="1"/>
     </x:row>
     <x:row r="152" spans="1:27" ht="13.19999999999999928946">
-      <x:c r="A152" s="21"/>
-      <x:c r="B152" s="18"/>
-      <x:c r="C152" s="18" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="D152" s="18"/>
-      <x:c r="E152" s="1" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="F152" s="29">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G152" s="56"/>
-      <x:c r="H152" s="56"/>
-      <x:c r="I152" s="18"/>
-      <x:c r="K152" s="44"/>
+      <x:c r="A152" s="13" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="B152" s="14" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="C152" s="14"/>
+      <x:c r="D152" s="14"/>
+      <x:c r="E152" s="14"/>
+      <x:c r="F152" s="14"/>
+      <x:c r="G152" s="49"/>
+      <x:c r="H152" s="49"/>
+      <x:c r="I152" s="14"/>
+      <x:c r="K152" s="40"/>
       <x:c r="L152" s="1"/>
       <x:c r="M152" s="1"/>
       <x:c r="N152" s="1"/>
@@ -8877,19 +6647,19 @@
       <x:c r="A153" s="21"/>
       <x:c r="B153" s="18"/>
       <x:c r="C153" s="18" t="s">
-        <x:v>159</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="D153" s="18"/>
       <x:c r="E153" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F153" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G153" s="56"/>
-      <x:c r="H153" s="56"/>
+      <x:c r="G153" s="52"/>
+      <x:c r="H153" s="52"/>
       <x:c r="I153" s="18"/>
-      <x:c r="K153" s="44"/>
+      <x:c r="K153" s="40"/>
       <x:c r="L153" s="1"/>
       <x:c r="M153" s="1"/>
       <x:c r="N153" s="1"/>
@@ -8909,17 +6679,21 @@
     </x:row>
     <x:row r="154" spans="1:27" ht="13.19999999999999928946">
       <x:c r="A154" s="21"/>
-      <x:c r="B154" s="10" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="C154" s="17"/>
-      <x:c r="D154" s="17"/>
-      <x:c r="E154" s="17"/>
-      <x:c r="F154" s="30"/>
-      <x:c r="G154" s="55"/>
-      <x:c r="H154" s="55"/>
-      <x:c r="I154" s="17"/>
-      <x:c r="K154" s="44"/>
+      <x:c r="B154" s="18"/>
+      <x:c r="C154" s="18" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="D154" s="18"/>
+      <x:c r="E154" s="1" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F154" s="29">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G154" s="52"/>
+      <x:c r="H154" s="52"/>
+      <x:c r="I154" s="18"/>
+      <x:c r="K154" s="40"/>
       <x:c r="L154" s="1"/>
       <x:c r="M154" s="1"/>
       <x:c r="N154" s="1"/>
@@ -8939,20 +6713,17 @@
     </x:row>
     <x:row r="155" spans="1:27" ht="13.19999999999999928946">
       <x:c r="A155" s="21"/>
-      <x:c r="C155" s="1" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D155" s="16"/>
-      <x:c r="E155" s="1" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="F155" s="29">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G155" s="54"/>
-      <x:c r="H155" s="54"/>
-      <x:c r="I155" s="16"/>
-      <x:c r="K155" s="44"/>
+      <x:c r="B155" s="10" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="C155" s="17"/>
+      <x:c r="D155" s="17"/>
+      <x:c r="E155" s="17"/>
+      <x:c r="F155" s="30"/>
+      <x:c r="G155" s="51"/>
+      <x:c r="H155" s="51"/>
+      <x:c r="I155" s="17"/>
+      <x:c r="K155" s="40"/>
       <x:c r="L155" s="1"/>
       <x:c r="M155" s="1"/>
       <x:c r="N155" s="1"/>
@@ -8973,19 +6744,19 @@
     <x:row r="156" spans="1:27" ht="13.19999999999999928946">
       <x:c r="A156" s="21"/>
       <x:c r="C156" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D156" s="16"/>
       <x:c r="E156" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F156" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G156" s="54"/>
-      <x:c r="H156" s="54"/>
+      <x:c r="G156" s="50"/>
+      <x:c r="H156" s="50"/>
       <x:c r="I156" s="16"/>
-      <x:c r="K156" s="44"/>
+      <x:c r="K156" s="40"/>
       <x:c r="L156" s="1"/>
       <x:c r="M156" s="1"/>
       <x:c r="N156" s="1"/>
@@ -9006,19 +6777,19 @@
     <x:row r="157" spans="1:27" ht="13.19999999999999928946">
       <x:c r="A157" s="21"/>
       <x:c r="C157" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D157" s="16"/>
       <x:c r="E157" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F157" s="29">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G157" s="54"/>
-      <x:c r="H157" s="54"/>
+      <x:c r="G157" s="50"/>
+      <x:c r="H157" s="50"/>
       <x:c r="I157" s="16"/>
-      <x:c r="K157" s="44"/>
+      <x:c r="K157" s="40"/>
       <x:c r="L157" s="1"/>
       <x:c r="M157" s="1"/>
       <x:c r="N157" s="1"/>
@@ -9037,16 +6808,21 @@
       <x:c r="AA157" s="1"/>
     </x:row>
     <x:row r="158" spans="1:27" ht="13.19999999999999928946">
-      <x:c r="A158" s="7"/>
-      <x:c r="C158" s="1"/>
-      <x:c r="D158" s="1"/>
-      <x:c r="E158" s="1"/>
-      <x:c r="F158" s="1"/>
-      <x:c r="G158" s="49"/>
-      <x:c r="H158" s="49"/>
-      <x:c r="I158" s="1"/>
-      <x:c r="J158" s="44"/>
-      <x:c r="K158" s="44"/>
+      <x:c r="A158" s="21"/>
+      <x:c r="C158" s="1" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="D158" s="16"/>
+      <x:c r="E158" s="1" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F158" s="29">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G158" s="50"/>
+      <x:c r="H158" s="50"/>
+      <x:c r="I158" s="16"/>
+      <x:c r="K158" s="40"/>
       <x:c r="L158" s="1"/>
       <x:c r="M158" s="1"/>
       <x:c r="N158" s="1"/>
@@ -9066,16 +6842,15 @@
     </x:row>
     <x:row r="159" spans="1:27" ht="13.19999999999999928946">
       <x:c r="A159" s="7"/>
-      <x:c r="B159" s="1"/>
       <x:c r="C159" s="1"/>
       <x:c r="D159" s="1"/>
       <x:c r="E159" s="1"/>
       <x:c r="F159" s="1"/>
-      <x:c r="G159" s="49"/>
-      <x:c r="H159" s="49"/>
+      <x:c r="G159" s="45"/>
+      <x:c r="H159" s="45"/>
       <x:c r="I159" s="1"/>
-      <x:c r="J159" s="44"/>
-      <x:c r="K159" s="44"/>
+      <x:c r="J159" s="40"/>
+      <x:c r="K159" s="40"/>
       <x:c r="L159" s="1"/>
       <x:c r="M159" s="1"/>
       <x:c r="N159" s="1"/>
@@ -9100,11 +6875,11 @@
       <x:c r="D160" s="1"/>
       <x:c r="E160" s="1"/>
       <x:c r="F160" s="1"/>
-      <x:c r="G160" s="49"/>
-      <x:c r="H160" s="4"/>
+      <x:c r="G160" s="45"/>
+      <x:c r="H160" s="45"/>
       <x:c r="I160" s="1"/>
-      <x:c r="J160" s="41"/>
-      <x:c r="K160" s="44"/>
+      <x:c r="J160" s="40"/>
+      <x:c r="K160" s="40"/>
       <x:c r="L160" s="1"/>
       <x:c r="M160" s="1"/>
       <x:c r="N160" s="1"/>
@@ -9129,11 +6904,11 @@
       <x:c r="D161" s="1"/>
       <x:c r="E161" s="1"/>
       <x:c r="F161" s="1"/>
-      <x:c r="G161" s="49"/>
+      <x:c r="G161" s="45"/>
       <x:c r="H161" s="4"/>
       <x:c r="I161" s="1"/>
-      <x:c r="J161" s="41"/>
-      <x:c r="K161" s="41"/>
+      <x:c r="J161" s="37"/>
+      <x:c r="K161" s="40"/>
       <x:c r="L161" s="1"/>
       <x:c r="M161" s="1"/>
       <x:c r="N161" s="1"/>
@@ -9158,11 +6933,11 @@
       <x:c r="D162" s="1"/>
       <x:c r="E162" s="1"/>
       <x:c r="F162" s="1"/>
-      <x:c r="G162" s="49"/>
+      <x:c r="G162" s="45"/>
       <x:c r="H162" s="4"/>
       <x:c r="I162" s="1"/>
-      <x:c r="J162" s="41"/>
-      <x:c r="K162" s="41"/>
+      <x:c r="J162" s="37"/>
+      <x:c r="K162" s="37"/>
       <x:c r="L162" s="1"/>
       <x:c r="M162" s="1"/>
       <x:c r="N162" s="1"/>
@@ -9187,11 +6962,11 @@
       <x:c r="D163" s="1"/>
       <x:c r="E163" s="1"/>
       <x:c r="F163" s="1"/>
-      <x:c r="G163" s="4"/>
-      <x:c r="H163" s="49"/>
+      <x:c r="G163" s="45"/>
+      <x:c r="H163" s="4"/>
       <x:c r="I163" s="1"/>
-      <x:c r="J163" s="44"/>
-      <x:c r="K163" s="1"/>
+      <x:c r="J163" s="37"/>
+      <x:c r="K163" s="37"/>
       <x:c r="L163" s="1"/>
       <x:c r="M163" s="1"/>
       <x:c r="N163" s="1"/>
@@ -9217,9 +6992,9 @@
       <x:c r="E164" s="1"/>
       <x:c r="F164" s="1"/>
       <x:c r="G164" s="4"/>
-      <x:c r="H164" s="49"/>
+      <x:c r="H164" s="45"/>
       <x:c r="I164" s="1"/>
-      <x:c r="J164" s="44"/>
+      <x:c r="J164" s="40"/>
       <x:c r="K164" s="1"/>
       <x:c r="L164" s="1"/>
       <x:c r="M164" s="1"/>
@@ -9246,9 +7021,9 @@
       <x:c r="E165" s="1"/>
       <x:c r="F165" s="1"/>
       <x:c r="G165" s="4"/>
-      <x:c r="H165" s="49"/>
+      <x:c r="H165" s="45"/>
       <x:c r="I165" s="1"/>
-      <x:c r="J165" s="44"/>
+      <x:c r="J165" s="40"/>
       <x:c r="K165" s="1"/>
       <x:c r="L165" s="1"/>
       <x:c r="M165" s="1"/>
@@ -9275,10 +7050,10 @@
       <x:c r="E166" s="1"/>
       <x:c r="F166" s="1"/>
       <x:c r="G166" s="4"/>
-      <x:c r="H166" s="4"/>
+      <x:c r="H166" s="45"/>
       <x:c r="I166" s="1"/>
-      <x:c r="J166" s="41"/>
-      <x:c r="K166" s="41"/>
+      <x:c r="J166" s="40"/>
+      <x:c r="K166" s="1"/>
       <x:c r="L166" s="1"/>
       <x:c r="M166" s="1"/>
       <x:c r="N166" s="1"/>
@@ -9306,8 +7081,8 @@
       <x:c r="G167" s="4"/>
       <x:c r="H167" s="4"/>
       <x:c r="I167" s="1"/>
-      <x:c r="J167" s="41"/>
-      <x:c r="K167" s="1"/>
+      <x:c r="J167" s="37"/>
+      <x:c r="K167" s="37"/>
       <x:c r="L167" s="1"/>
       <x:c r="M167" s="1"/>
       <x:c r="N167" s="1"/>
@@ -9335,7 +7110,7 @@
       <x:c r="G168" s="4"/>
       <x:c r="H168" s="4"/>
       <x:c r="I168" s="1"/>
-      <x:c r="J168" s="41"/>
+      <x:c r="J168" s="37"/>
       <x:c r="K168" s="1"/>
       <x:c r="L168" s="1"/>
       <x:c r="M168" s="1"/>
@@ -9354,16 +7129,17 @@
       <x:c r="Z168" s="1"/>
       <x:c r="AA168" s="1"/>
     </x:row>
-    <x:row r="169" spans="2:27" ht="13.19999999999999928946">
+    <x:row r="169" spans="1:27" ht="13.19999999999999928946">
+      <x:c r="A169" s="7"/>
       <x:c r="B169" s="1"/>
       <x:c r="C169" s="1"/>
       <x:c r="D169" s="1"/>
       <x:c r="E169" s="1"/>
       <x:c r="F169" s="1"/>
-      <x:c r="G169" s="1"/>
-      <x:c r="H169" s="1"/>
+      <x:c r="G169" s="4"/>
+      <x:c r="H169" s="4"/>
       <x:c r="I169" s="1"/>
-      <x:c r="J169" s="1"/>
+      <x:c r="J169" s="37"/>
       <x:c r="K169" s="1"/>
       <x:c r="L169" s="1"/>
       <x:c r="M169" s="1"/>
@@ -35898,6 +33674,34 @@
       <x:c r="Z1116" s="1"/>
       <x:c r="AA1116" s="1"/>
     </x:row>
+    <x:row r="1117" spans="2:27" ht="13.19999999999999928946">
+      <x:c r="B1117" s="1"/>
+      <x:c r="C1117" s="1"/>
+      <x:c r="D1117" s="1"/>
+      <x:c r="E1117" s="1"/>
+      <x:c r="F1117" s="1"/>
+      <x:c r="G1117" s="1"/>
+      <x:c r="H1117" s="1"/>
+      <x:c r="I1117" s="1"/>
+      <x:c r="J1117" s="1"/>
+      <x:c r="K1117" s="1"/>
+      <x:c r="L1117" s="1"/>
+      <x:c r="M1117" s="1"/>
+      <x:c r="N1117" s="1"/>
+      <x:c r="O1117" s="1"/>
+      <x:c r="P1117" s="1"/>
+      <x:c r="Q1117" s="1"/>
+      <x:c r="R1117" s="1"/>
+      <x:c r="S1117" s="1"/>
+      <x:c r="T1117" s="1"/>
+      <x:c r="U1117" s="1"/>
+      <x:c r="V1117" s="1"/>
+      <x:c r="W1117" s="1"/>
+      <x:c r="X1117" s="1"/>
+      <x:c r="Y1117" s="1"/>
+      <x:c r="Z1117" s="1"/>
+      <x:c r="AA1117" s="1"/>
+    </x:row>
   </x:sheetData>
   <x:mergeCells count="4">
     <x:mergeCell ref="F2:G2"/>
@@ -35906,18 +33710,18 @@
     <x:mergeCell ref="H3:I3"/>
   </x:mergeCells>
   <x:dataValidations count="4">
-    <x:dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I9:I29 I36:I168">
+    <x:dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I9:I29 I36:I169">
       <x:formula1>"높음,낮음,중간,너무 높음"</x:formula1>
     </x:dataValidation>
-    <x:dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E9:E31 E33:E168">
+    <x:dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E9:E31 E33:E169">
       <x:formula1>"완료,진행중,진행 예정"</x:formula1>
     </x:dataValidation>
-    <x:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1 I2:I6 D7:D29 D36:D1048573">
+    <x:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1 I2:I6 D7:D29 D36:D1048574">
       <x:formula1>"박진우,최서린,서혜선,임가은,하다현"</x:formula1>
     </x:dataValidation>
-    <x:dataValidation allowBlank="1" showErrorMessage="1" sqref="F1:F1048573"/>
+    <x:dataValidation allowBlank="1" showErrorMessage="1" sqref="F1:F1048574"/>
   </x:dataValidations>
-  <x:pageMargins left="0.69999998807907104492" right="0.69999998807907104492" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1"/>
 </x:worksheet>
